--- a/sim/filter/Simulasi.xlsx
+++ b/sim/filter/Simulasi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7350" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FFT" sheetId="1" r:id="rId1"/>
@@ -222,7 +222,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -912,601 +911,601 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.382683</c:v>
+                  <c:v>0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>0.587785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.92388000000000003</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.382683</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
                 <c:pt idx="16">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="31">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>-0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.92388000000000003</c:v>
+                  <c:v>-0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>-0.587785</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.382683</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-0.382683</c:v>
+                  <c:v>0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.70710700000000004</c:v>
+                  <c:v>0.587785</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="56">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="61">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="66">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="71">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1</c:v>
+                  <c:v>-0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>-0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.70710700000000004</c:v>
+                  <c:v>-0.587785</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.382683</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.382683</c:v>
+                  <c:v>0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>0.587785</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.92388000000000003</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.382683</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
                 <c:pt idx="96">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="105">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="111">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="116">
-                  <c:v>1</c:v>
+                  <c:v>-0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.92388000000000003</c:v>
+                  <c:v>-0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>-0.587785</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.382683</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>-0.382683</c:v>
+                  <c:v>0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>-0.70710700000000004</c:v>
+                  <c:v>0.587785</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="124">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="136">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="141">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="146">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="151">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="155">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="141">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="156">
-                  <c:v>-1</c:v>
+                  <c:v>-0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>-0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.70710700000000004</c:v>
+                  <c:v>-0.587785</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.382683</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="160">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.382683</c:v>
+                  <c:v>0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>0.587785</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.92388000000000003</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="164">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="165">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.382683</c:v>
+                  <c:v>0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="168">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="169">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.92388000000000003</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="172">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="175">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="173">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
                 <c:pt idx="176">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="180">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="181">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="186">
+                  <c:v>0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.587785</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="185">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="191">
+                  <c:v>-0.30901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.587785</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.80901699999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.95105700000000004</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>-1</c:v>
                 </c:pt>
-                <c:pt idx="189">
-                  <c:v>-0.92388000000000003</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>-0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>-0.382683</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.382683</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.70710700000000004</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.92388000000000003</c:v>
-                </c:pt>
                 <c:pt idx="196">
-                  <c:v>1</c:v>
+                  <c:v>-0.95105700000000004</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.92388000000000003</c:v>
+                  <c:v>-0.80901699999999999</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.70710700000000004</c:v>
+                  <c:v>-0.587785</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.382683</c:v>
+                  <c:v>-0.30901699999999999</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1558,598 +1557,598 @@
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="55">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="32">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>108</c:v>
-                </c:pt>
                 <c:pt idx="74">
-                  <c:v>87</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>115</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>147</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>168</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>165</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>140</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>108</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>87</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>115</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>147</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>168</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>165</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>140</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>108</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>87</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>90</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>115</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>147</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>168</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>165</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>140</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>108</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>87</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>90</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>115</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>147</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>168</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>165</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>140</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>108</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>87</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>90</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>115</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>147</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>168</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>165</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>140</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>108</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>87</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>115</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>147</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>168</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>165</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>140</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>108</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>87</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>115</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>147</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>168</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>165</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>140</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>108</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>87</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>90</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>115</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>147</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>168</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>165</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>140</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>108</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>87</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>90</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>115</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>147</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>168</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>165</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>140</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>108</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>87</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>90</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>115</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>147</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>168</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>165</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>140</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>108</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>87</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>115</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>147</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>168</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>165</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>140</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>108</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>87</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>90</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>115</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>147</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>168</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>165</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>140</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>108</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>87</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>90</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>115</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>147</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>168</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>165</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>140</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>108</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>87</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>90</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>115</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>147</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>168</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>165</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>140</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>108</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>87</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>90</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>115</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>147</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>168</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>165</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>140</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>108</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>87</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>90</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>115</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>147</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>168</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>165</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,601 +2222,601 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.38268343236508978</c:v>
+                        <c:v>0.3090169943749474</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.70710678118654746</c:v>
+                        <c:v>0.58778525229247314</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.92387953251128674</c:v>
+                        <c:v>0.80901699437494745</c:v>
                       </c:pt>
                       <c:pt idx="4">
+                        <c:v>0.95105651629515353</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="5">
-                        <c:v>0.92387953251128674</c:v>
-                      </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.70710678118654757</c:v>
+                        <c:v>0.95105651629515364</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.38268343236508989</c:v>
+                        <c:v>0.80901699437494745</c:v>
                       </c:pt>
                       <c:pt idx="8">
+                        <c:v>0.58778525229247325</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.30901699437494751</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
                         <c:v>1.22514845490862E-16</c:v>
                       </c:pt>
-                      <c:pt idx="9">
-                        <c:v>-0.38268343236508967</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>-0.70710678118654746</c:v>
-                      </c:pt>
                       <c:pt idx="11">
-                        <c:v>-0.92387953251128652</c:v>
+                        <c:v>-0.30901699437494728</c:v>
                       </c:pt>
                       <c:pt idx="12">
+                        <c:v>-0.58778525229247303</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>-0.80901699437494734</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>-0.95105651629515353</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-0.92387953251128663</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-0.70710678118654768</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-0.38268343236509039</c:v>
-                      </c:pt>
                       <c:pt idx="16">
+                        <c:v>-0.95105651629515364</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>-0.80901699437494756</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>-0.58778525229247336</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>-0.30901699437494762</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
                         <c:v>-2.45029690981724E-16</c:v>
                       </c:pt>
-                      <c:pt idx="17">
-                        <c:v>0.38268343236508995</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>0.70710678118654735</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>0.92387953251128652</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
+                      <c:pt idx="21">
+                        <c:v>0.30901699437494717</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.58778525229247292</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.80901699437494723</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.95105651629515353</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.92387953251128674</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.70710678118654835</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.3826834323650905</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
+                      <c:pt idx="26">
+                        <c:v>0.95105651629515364</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.80901699437494767</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.58778525229247336</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.30901699437494778</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
                         <c:v>3.67544536472586E-16</c:v>
                       </c:pt>
-                      <c:pt idx="25">
-                        <c:v>-0.38268343236508984</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>-0.70710678118654791</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>-0.92387953251128641</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
+                      <c:pt idx="31">
+                        <c:v>-0.30901699437494706</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>-0.5877852522924728</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>-0.80901699437494723</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>-0.95105651629515342</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="29">
-                        <c:v>-0.92387953251128674</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>-0.70710678118654846</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-0.38268343236509061</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
+                      <c:pt idx="36">
+                        <c:v>-0.95105651629515375</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>-0.80901699437494767</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>-0.58778525229247347</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>-0.3090169943749479</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
                         <c:v>-4.90059381963448E-16</c:v>
                       </c:pt>
-                      <c:pt idx="33">
-                        <c:v>0.38268343236508973</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>0.70710678118654779</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>0.92387953251128641</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
+                      <c:pt idx="41">
+                        <c:v>0.30901699437494695</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.58778525229247269</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.80901699437494712</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.95105651629515342</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="37">
-                        <c:v>0.92387953251128685</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>0.70710678118654857</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>0.38268343236509073</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
+                      <c:pt idx="46">
+                        <c:v>0.95105651629515375</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.80901699437494778</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.58778525229247358</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.30901699437494801</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
                         <c:v>6.1257422745431001E-16</c:v>
                       </c:pt>
-                      <c:pt idx="41">
-                        <c:v>-0.38268343236508795</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>-0.70710678118654768</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>-0.92387953251128629</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
+                      <c:pt idx="51">
+                        <c:v>-0.30901699437494512</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>-0.58778525229247258</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>-0.80901699437494812</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>-0.95105651629515342</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="45">
-                        <c:v>-0.92387953251128685</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>-0.70710678118654868</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>-0.38268343236508923</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
+                      <c:pt idx="56">
+                        <c:v>-0.95105651629515375</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>-0.80901699437494679</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>-0.58778525229247369</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>-0.30901699437494978</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
                         <c:v>-7.3508907294517201E-16</c:v>
                       </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.38268343236508784</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>0.70710678118654757</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>0.92387953251128629</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
+                      <c:pt idx="61">
+                        <c:v>0.30901699437494839</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.58778525229247247</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.8090169943749459</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.95105651629515331</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="53">
-                        <c:v>0.92387953251128685</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>0.70710678118654868</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>0.38268343236508934</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
+                      <c:pt idx="66">
+                        <c:v>0.95105651629515386</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.80901699437494901</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.5877852522924738</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.30901699437494656</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
                         <c:v>8.5760391843603401E-16</c:v>
                       </c:pt>
-                      <c:pt idx="57">
-                        <c:v>-0.38268343236508773</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>-0.70710678118654757</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>-0.92387953251128629</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
+                      <c:pt idx="71">
+                        <c:v>-0.3090169943749449</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>-0.58778525229247247</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>-0.8090169943749479</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>-0.95105651629515331</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="61">
-                        <c:v>-0.92387953251128696</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>-0.70710678118654879</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>-0.38268343236508945</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
+                      <c:pt idx="76">
+                        <c:v>-0.95105651629515386</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>-0.8090169943749469</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>-0.58778525229247391</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>-0.30901699437495006</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
                         <c:v>-9.8011876392689601E-16</c:v>
                       </c:pt>
-                      <c:pt idx="65">
-                        <c:v>0.38268343236508762</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>0.70710678118654746</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>0.92387953251128618</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
+                      <c:pt idx="81">
+                        <c:v>0.30901699437494817</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.58778525229247236</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.80901699437494579</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.95105651629515331</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="69">
-                        <c:v>0.92387953251128696</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>0.70710678118654891</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>0.38268343236508956</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
+                      <c:pt idx="86">
+                        <c:v>0.95105651629515386</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.80901699437494912</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.58778525229247403</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.30901699437494679</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
                         <c:v>1.102633609417758E-15</c:v>
                       </c:pt>
-                      <c:pt idx="73">
-                        <c:v>-0.38268343236508751</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>-0.70710678118654735</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>-0.92387953251128618</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
+                      <c:pt idx="91">
+                        <c:v>-0.30901699437494468</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>-0.58778525229247225</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>-0.80901699437494778</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>-0.9510565162951532</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="77">
-                        <c:v>-0.92387953251128707</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>-0.70710678118654902</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>-0.38268343236508967</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
+                      <c:pt idx="96">
+                        <c:v>-0.95105651629515398</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>-0.80901699437494712</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>-0.58778525229247414</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>-0.30901699437495028</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
                         <c:v>-1.22514845490862E-15</c:v>
                       </c:pt>
-                      <c:pt idx="81">
-                        <c:v>0.38268343236508739</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>0.7071067811865448</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>0.9238795325112874</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
+                      <c:pt idx="101">
+                        <c:v>0.30901699437494795</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>0.58778525229246925</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>0.80901699437494567</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>0.9510565162951532</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="85">
-                        <c:v>0.92387953251128707</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>0.70710678118654913</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>0.38268343236509306</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
+                      <c:pt idx="106">
+                        <c:v>0.95105651629515287</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>0.80901699437494923</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>0.58778525229247425</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>0.30901699437494701</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
                         <c:v>4.9003769791999829E-15</c:v>
                       </c:pt>
-                      <c:pt idx="89">
-                        <c:v>-0.38268343236509056</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>-0.70710678118654713</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>-0.92387953251128607</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
+                      <c:pt idx="111">
+                        <c:v>-0.30901699437494445</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>-0.58778525229247203</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>-0.80901699437494767</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>-0.9510565162951542</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="93">
-                        <c:v>-0.92387953251128851</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>-0.70710678118654668</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>-0.38268343236508989</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
+                      <c:pt idx="116">
+                        <c:v>-0.95105651629515398</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>-0.80901699437494723</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>-0.58778525229247713</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>-0.3090169943749505</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
                         <c:v>-1.470178145890344E-15</c:v>
                       </c:pt>
-                      <c:pt idx="97">
-                        <c:v>0.38268343236508717</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>0.70710678118654458</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>0.9238795325112874</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
+                      <c:pt idx="121">
+                        <c:v>0.30901699437494773</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>0.5877852522924748</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>0.80901699437494545</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>0.95105651629515309</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="101">
-                        <c:v>0.92387953251128718</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>0.70710678118654924</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>0.38268343236509328</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
+                      <c:pt idx="126">
+                        <c:v>0.9510565162951552</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>0.80901699437494934</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>0.58778525229247436</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>0.30901699437494723</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
                         <c:v>-1.9600206874192949E-15</c:v>
                       </c:pt>
-                      <c:pt idx="105">
-                        <c:v>-0.38268343236509034</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>-0.70710678118654702</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>-0.92387953251128596</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
+                      <c:pt idx="131">
+                        <c:v>-0.30901699437494423</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>-0.5877852522924718</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>-0.80901699437494756</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>-0.95105651629515198</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="109">
-                        <c:v>-0.92387953251128863</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>-0.7071067811865468</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>-0.38268343236509011</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
+                      <c:pt idx="136">
+                        <c:v>-0.95105651629515409</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>-0.80901699437494734</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>-0.58778525229247158</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>-0.30901699437495073</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
                         <c:v>-1.715207836872068E-15</c:v>
                       </c:pt>
-                      <c:pt idx="113">
-                        <c:v>0.38268343236508695</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>0.70710678118654435</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>0.92387953251128729</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
+                      <c:pt idx="141">
+                        <c:v>0.30901699437494745</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>0.58778525229246881</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>0.80901699437494534</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>0.95105651629515298</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="117">
-                        <c:v>0.92387953251128729</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>0.70710678118654946</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>0.3826834323650935</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
+                      <c:pt idx="146">
+                        <c:v>0.95105651629515298</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>0.80901699437494956</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>0.58778525229247458</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>0.30901699437494745</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
                         <c:v>5.3904363611634309E-15</c:v>
                       </c:pt>
-                      <c:pt idx="121">
-                        <c:v>-0.38268343236509011</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>-0.7071067811865468</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>-0.92387953251128585</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
+                      <c:pt idx="151">
+                        <c:v>-0.30901699437494395</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>-0.58778525229247158</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>-0.80901699437494734</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>-0.95105651629515409</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="125">
-                        <c:v>-0.92387953251128863</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>-0.70710678118654702</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>-0.38268343236509034</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
+                      <c:pt idx="156">
+                        <c:v>-0.9510565162951542</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>-0.80901699437494756</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>-0.58778525229247758</c:v>
+                      </c:pt>
+                      <c:pt idx="159">
+                        <c:v>-0.30901699437495095</c:v>
+                      </c:pt>
+                      <c:pt idx="160">
                         <c:v>-1.960237527853792E-15</c:v>
                       </c:pt>
-                      <c:pt idx="129">
-                        <c:v>0.38268343236508673</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>0.70710678118654424</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>0.92387953251128718</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
+                      <c:pt idx="161">
+                        <c:v>0.30901699437494723</c:v>
+                      </c:pt>
+                      <c:pt idx="162">
+                        <c:v>0.58778525229247436</c:v>
+                      </c:pt>
+                      <c:pt idx="163">
+                        <c:v>0.80901699437494523</c:v>
+                      </c:pt>
+                      <c:pt idx="164">
+                        <c:v>0.95105651629515298</c:v>
+                      </c:pt>
+                      <c:pt idx="165">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="133">
-                        <c:v>0.9238795325112874</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>0.70710678118654957</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>0.38268343236509372</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
+                      <c:pt idx="166">
+                        <c:v>0.95105651629515531</c:v>
+                      </c:pt>
+                      <c:pt idx="167">
+                        <c:v>0.80901699437494967</c:v>
+                      </c:pt>
+                      <c:pt idx="168">
+                        <c:v>0.5877852522924748</c:v>
+                      </c:pt>
+                      <c:pt idx="169">
+                        <c:v>0.30901699437494773</c:v>
+                      </c:pt>
+                      <c:pt idx="170">
                         <c:v>-1.4699613054558469E-15</c:v>
                       </c:pt>
-                      <c:pt idx="137">
-                        <c:v>-0.38268343236508989</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>-0.70710678118654668</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>-0.92387953251128574</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
+                      <c:pt idx="171">
+                        <c:v>-0.30901699437494373</c:v>
+                      </c:pt>
+                      <c:pt idx="172">
+                        <c:v>-0.58778525229247147</c:v>
+                      </c:pt>
+                      <c:pt idx="173">
+                        <c:v>-0.80901699437494723</c:v>
+                      </c:pt>
+                      <c:pt idx="174">
+                        <c:v>-0.95105651629515187</c:v>
+                      </c:pt>
+                      <c:pt idx="175">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="141">
-                        <c:v>-0.92387953251128874</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>-0.70710678118654713</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>-0.38268343236509056</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
+                      <c:pt idx="176">
+                        <c:v>-0.9510565162951542</c:v>
+                      </c:pt>
+                      <c:pt idx="177">
+                        <c:v>-0.80901699437494767</c:v>
+                      </c:pt>
+                      <c:pt idx="178">
+                        <c:v>-0.58778525229247203</c:v>
+                      </c:pt>
+                      <c:pt idx="179">
+                        <c:v>-0.30901699437495123</c:v>
+                      </c:pt>
+                      <c:pt idx="180">
                         <c:v>-2.205267218835516E-15</c:v>
                       </c:pt>
-                      <c:pt idx="145">
-                        <c:v>0.38268343236508651</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>0.70710678118654402</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>0.92387953251128707</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
+                      <c:pt idx="181">
+                        <c:v>0.30901699437494701</c:v>
+                      </c:pt>
+                      <c:pt idx="182">
+                        <c:v>0.58778525229246847</c:v>
+                      </c:pt>
+                      <c:pt idx="183">
+                        <c:v>0.80901699437494501</c:v>
+                      </c:pt>
+                      <c:pt idx="184">
+                        <c:v>0.95105651629515287</c:v>
+                      </c:pt>
+                      <c:pt idx="185">
                         <c:v>1</c:v>
                       </c:pt>
-                      <c:pt idx="149">
-                        <c:v>0.9238795325112874</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>0.70710678118654979</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>0.38268343236509395</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
+                      <c:pt idx="186">
+                        <c:v>0.9510565162951532</c:v>
+                      </c:pt>
+                      <c:pt idx="187">
+                        <c:v>0.80901699437494978</c:v>
+                      </c:pt>
+                      <c:pt idx="188">
+                        <c:v>0.58778525229247502</c:v>
+                      </c:pt>
+                      <c:pt idx="189">
+                        <c:v>0.30901699437494795</c:v>
+                      </c:pt>
+                      <c:pt idx="190">
                         <c:v>5.8804957431268789E-15</c:v>
                       </c:pt>
-                      <c:pt idx="153">
-                        <c:v>-0.38268343236508967</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>-0.70710678118654646</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>-0.92387953251128563</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
+                      <c:pt idx="191">
+                        <c:v>-0.30901699437494351</c:v>
+                      </c:pt>
+                      <c:pt idx="192">
+                        <c:v>-0.58778525229247125</c:v>
+                      </c:pt>
+                      <c:pt idx="193">
+                        <c:v>-0.80901699437494712</c:v>
+                      </c:pt>
+                      <c:pt idx="194">
+                        <c:v>-0.95105651629515398</c:v>
+                      </c:pt>
+                      <c:pt idx="195">
                         <c:v>-1</c:v>
                       </c:pt>
-                      <c:pt idx="157">
-                        <c:v>-0.92387953251128885</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>-0.70710678118654735</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>-0.38268343236509078</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>-2.45029690981724E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>0.38268343236508628</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>0.70710678118654391</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>0.9238795325112843</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>0.92387953251129029</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>0.70710678118654491</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>0.38268343236508762</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>-9.7990192349239891E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>-0.38268343236508945</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>-0.70710678118654635</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>-0.92387953251128563</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>-0.92387953251128896</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>-0.70710678118655257</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>-0.38268343236509761</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>-9.8007539583999659E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>0.38268343236509261</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>0.70710678118654868</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>0.92387953251128685</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>0.92387953251128763</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>0.70710678118655013</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>0.38268343236509439</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>6.370555125090327E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>-0.38268343236508262</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>-0.70710678118654113</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>-0.92387953251128818</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>-0.92387953251128629</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>-0.70710678118654768</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>-0.38268343236509123</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>-2.940356291780688E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>0.38268343236508578</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>0.70710678118654358</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>0.92387953251128407</c:v>
-                      </c:pt>
                       <c:pt idx="196">
-                        <c:v>1</c:v>
+                        <c:v>-0.95105651629515431</c:v>
                       </c:pt>
                       <c:pt idx="197">
-                        <c:v>0.92387953251129051</c:v>
+                        <c:v>-0.80901699437494778</c:v>
                       </c:pt>
                       <c:pt idx="198">
-                        <c:v>0.70710678118654524</c:v>
+                        <c:v>-0.58778525229247791</c:v>
                       </c:pt>
                       <c:pt idx="199">
-                        <c:v>0.38268343236508806</c:v>
+                        <c:v>-0.30901699437495145</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -7811,8 +7810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A34"/>
+    <sheetView topLeftCell="O15" workbookViewId="0">
+      <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11135,7 +11134,7 @@
   <dimension ref="A1:M202"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G2" sqref="G2:G201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11193,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -11215,14 +11214,14 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G3">
         <v>127</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H66" si="1">SIN(2*PI()*$K$2/$K$1*D3)</f>
-        <v>0.38268343236508978</v>
+        <v>0.3090169943749474</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -11238,14 +11237,14 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G4">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.70710678118654746</v>
+        <v>0.58778525229247314</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -11261,14 +11260,14 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G5">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.92387953251128674</v>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -11284,14 +11283,14 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G6">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.95105651629515353</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -11307,14 +11306,14 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>0.92388000000000003</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>0.92387953251128674</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -11330,14 +11329,14 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G8">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.70710678118654757</v>
+        <v>0.95105651629515364</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -11353,14 +11352,14 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G9">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.38268343236508989</v>
+        <v>0.80901699437494745</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -11376,14 +11375,14 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.587785</v>
       </c>
       <c r="G10">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>1.22514845490862E-16</v>
+        <v>0.58778525229247325</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -11399,14 +11398,14 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>-0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G11">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-0.38268343236508967</v>
+        <v>0.30901699437494751</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -11422,14 +11421,14 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>-0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654746</v>
+        <v>1.22514845490862E-16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -11445,14 +11444,14 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>-0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G13">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128652</v>
+        <v>-0.30901699437494728</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -11468,14 +11467,14 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>-0.587785</v>
       </c>
       <c r="G14">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-0.58778525229247303</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -11491,14 +11490,14 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>-0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G15">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128663</v>
+        <v>-0.80901699437494734</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -11514,14 +11513,14 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>-0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G16">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654768</v>
+        <v>-0.95105651629515353</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -11537,14 +11536,14 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>-0.382683</v>
+        <v>-1</v>
       </c>
       <c r="G17">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-0.38268343236509039</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -11560,14 +11559,14 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G18">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-2.45029690981724E-16</v>
+        <v>-0.95105651629515364</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -11583,14 +11582,14 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G19">
-        <v>108</v>
+        <v>57</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>0.38268343236508995</v>
+        <v>-0.80901699437494756</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -11606,14 +11605,14 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G20">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>0.70710678118654735</v>
+        <v>-0.58778525229247336</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -11629,14 +11628,14 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G21">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>0.92387953251128652</v>
+        <v>-0.30901699437494762</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -11652,14 +11651,14 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-2.45029690981724E-16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -11675,14 +11674,14 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G23">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.92387953251128674</v>
+        <v>0.30901699437494717</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -11698,14 +11697,14 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G24">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>0.70710678118654835</v>
+        <v>0.58778525229247292</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -11721,14 +11720,14 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G25">
-        <v>171</v>
+        <v>113</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>0.3826834323650905</v>
+        <v>0.80901699437494723</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -11744,14 +11743,14 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G26">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>3.67544536472586E-16</v>
+        <v>0.95105651629515353</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -11767,14 +11766,14 @@
         <v>25</v>
       </c>
       <c r="E27">
-        <v>-0.382683</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>-0.38268343236508984</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -11790,14 +11789,14 @@
         <v>26</v>
       </c>
       <c r="E28">
-        <v>-0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G28">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654791</v>
+        <v>0.95105651629515364</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11813,14 +11812,14 @@
         <v>27</v>
       </c>
       <c r="E29">
-        <v>-0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G29">
-        <v>108</v>
+        <v>215</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128641</v>
+        <v>0.80901699437494767</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11836,14 +11835,14 @@
         <v>28</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>0.587785</v>
       </c>
       <c r="G30">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.58778525229247336</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -11859,14 +11858,14 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>-0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G31">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128674</v>
+        <v>0.30901699437494778</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -11882,14 +11881,14 @@
         <v>30</v>
       </c>
       <c r="E32">
-        <v>-0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654846</v>
+        <v>3.67544536472586E-16</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -11905,14 +11904,14 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>-0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G33">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-0.38268343236509061</v>
+        <v>-0.30901699437494706</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -11928,14 +11927,14 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-0.587785</v>
       </c>
       <c r="G34">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-4.90059381963448E-16</v>
+        <v>-0.5877852522924728</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -11943,14 +11942,14 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G35">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>0.38268343236508973</v>
+        <v>-0.80901699437494723</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -11958,14 +11957,14 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G36">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>0.70710678118654779</v>
+        <v>-0.95105651629515342</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -11973,14 +11972,14 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <v>0.92388000000000003</v>
+        <v>-1</v>
       </c>
       <c r="G37">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>0.92387953251128641</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -11988,14 +11987,14 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G38">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-0.95105651629515375</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -12003,14 +12002,14 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G39">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>0.92387953251128685</v>
+        <v>-0.80901699437494767</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -12018,14 +12017,14 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <v>0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G40">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>0.70710678118654857</v>
+        <v>-0.58778525229247347</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -12033,14 +12032,14 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G41">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>0.38268343236509073</v>
+        <v>-0.3090169943749479</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -12051,11 +12050,11 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>6.1257422745431001E-16</v>
+        <v>-4.90059381963448E-16</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -12063,14 +12062,14 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>-0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G43">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>-0.38268343236508795</v>
+        <v>0.30901699437494695</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -12078,14 +12077,14 @@
         <v>42</v>
       </c>
       <c r="E44">
-        <v>-0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G44">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654768</v>
+        <v>0.58778525229247269</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -12093,14 +12092,14 @@
         <v>43</v>
       </c>
       <c r="E45">
-        <v>-0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G45">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128629</v>
+        <v>0.80901699437494712</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -12108,14 +12107,14 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <v>-1</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G46">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.95105651629515342</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -12123,14 +12122,14 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <v>-0.92388000000000003</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128685</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -12138,14 +12137,14 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <v>-0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G48">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654868</v>
+        <v>0.95105651629515375</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.25">
@@ -12153,14 +12152,14 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <v>-0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G49">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>-0.38268343236508923</v>
+        <v>0.80901699437494778</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
@@ -12168,14 +12167,14 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.587785</v>
       </c>
       <c r="G50">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>-7.3508907294517201E-16</v>
+        <v>0.58778525229247358</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -12183,14 +12182,14 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <v>0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G51">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>0.38268343236508784</v>
+        <v>0.30901699437494801</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
@@ -12198,14 +12197,14 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <v>0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>0.70710678118654757</v>
+        <v>6.1257422745431001E-16</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
@@ -12213,14 +12212,14 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <v>0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G53">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>0.92387953251128629</v>
+        <v>-0.30901699437494512</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
@@ -12228,14 +12227,14 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>-0.587785</v>
       </c>
       <c r="G54">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>-0.58778525229247258</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
@@ -12243,14 +12242,14 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <v>0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G55">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>0.92387953251128685</v>
+        <v>-0.80901699437494812</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
@@ -12258,14 +12257,14 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <v>0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G56">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>0.70710678118654868</v>
+        <v>-0.95105651629515342</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
@@ -12273,14 +12272,14 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <v>0.382683</v>
+        <v>-1</v>
       </c>
       <c r="G57">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>0.38268343236508934</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
@@ -12288,14 +12287,14 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G58">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>8.5760391843603401E-16</v>
+        <v>-0.95105651629515375</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
@@ -12303,14 +12302,14 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <v>-0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G59">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>-0.38268343236508773</v>
+        <v>-0.80901699437494679</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.25">
@@ -12318,14 +12317,14 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <v>-0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G60">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654757</v>
+        <v>-0.58778525229247369</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
@@ -12333,14 +12332,14 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <v>-0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G61">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128629</v>
+        <v>-0.30901699437494978</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
@@ -12348,14 +12347,14 @@
         <v>60</v>
       </c>
       <c r="E62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-7.3508907294517201E-16</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.25">
@@ -12363,14 +12362,14 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>-0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G63">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>-0.92387953251128696</v>
+        <v>0.30901699437494839</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
@@ -12378,14 +12377,14 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>-0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G64">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>-0.70710678118654879</v>
+        <v>0.58778525229247247</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
@@ -12393,14 +12392,14 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>-0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G65">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>-0.38268343236508945</v>
+        <v>0.8090169943749459</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
@@ -12408,14 +12407,14 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G66">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>-9.8011876392689601E-16</v>
+        <v>0.95105651629515331</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
@@ -12423,14 +12422,14 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>0.382683</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H67">
         <f t="shared" ref="H67:H130" si="2">SIN(2*PI()*$K$2/$K$1*D67)</f>
-        <v>0.38268343236508762</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
@@ -12438,14 +12437,14 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G68">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="H68">
         <f t="shared" si="2"/>
-        <v>0.70710678118654746</v>
+        <v>0.95105651629515386</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
@@ -12453,14 +12452,14 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G69">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="H69">
         <f t="shared" si="2"/>
-        <v>0.92387953251128618</v>
+        <v>0.80901699437494901</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
@@ -12468,14 +12467,14 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0.587785</v>
       </c>
       <c r="G70">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.5877852522924738</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
@@ -12483,14 +12482,14 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G71">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H71">
         <f t="shared" si="2"/>
-        <v>0.92387953251128696</v>
+        <v>0.30901699437494656</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
@@ -12498,14 +12497,14 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="H72">
         <f t="shared" si="2"/>
-        <v>0.70710678118654891</v>
+        <v>8.5760391843603401E-16</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
@@ -12513,14 +12512,14 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G73">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="H73">
         <f t="shared" si="2"/>
-        <v>0.38268343236508956</v>
+        <v>-0.3090169943749449</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
@@ -12528,14 +12527,14 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>-0.587785</v>
       </c>
       <c r="G74">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H74">
         <f t="shared" si="2"/>
-        <v>1.102633609417758E-15</v>
+        <v>-0.58778525229247247</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
@@ -12543,14 +12542,14 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <v>-0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G75">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H75">
         <f t="shared" si="2"/>
-        <v>-0.38268343236508751</v>
+        <v>-0.8090169943749479</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
@@ -12558,14 +12557,14 @@
         <v>74</v>
       </c>
       <c r="E76">
-        <v>-0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G76">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>-0.70710678118654735</v>
+        <v>-0.95105651629515331</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
@@ -12573,14 +12572,14 @@
         <v>75</v>
       </c>
       <c r="E77">
-        <v>-0.92388000000000003</v>
+        <v>-1</v>
       </c>
       <c r="G77">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H77">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128618</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
@@ -12588,14 +12587,14 @@
         <v>76</v>
       </c>
       <c r="E78">
-        <v>-1</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G78">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="H78">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-0.95105651629515386</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
@@ -12603,14 +12602,14 @@
         <v>77</v>
       </c>
       <c r="E79">
-        <v>-0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G79">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="H79">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128707</v>
+        <v>-0.8090169943749469</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
@@ -12618,14 +12617,14 @@
         <v>78</v>
       </c>
       <c r="E80">
-        <v>-0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G80">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H80">
         <f t="shared" si="2"/>
-        <v>-0.70710678118654902</v>
+        <v>-0.58778525229247391</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
@@ -12633,14 +12632,14 @@
         <v>79</v>
       </c>
       <c r="E81">
-        <v>-0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G81">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="H81">
         <f t="shared" si="2"/>
-        <v>-0.38268343236508967</v>
+        <v>-0.30901699437495006</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
@@ -12651,11 +12650,11 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="H82">
         <f t="shared" si="2"/>
-        <v>-1.22514845490862E-15</v>
+        <v>-9.8011876392689601E-16</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
@@ -12663,14 +12662,14 @@
         <v>81</v>
       </c>
       <c r="E83">
-        <v>0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G83">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H83">
         <f t="shared" si="2"/>
-        <v>0.38268343236508739</v>
+        <v>0.30901699437494817</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.25">
@@ -12678,14 +12677,14 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <v>0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G84">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H84">
         <f t="shared" si="2"/>
-        <v>0.7071067811865448</v>
+        <v>0.58778525229247236</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.25">
@@ -12693,14 +12692,14 @@
         <v>83</v>
       </c>
       <c r="E85">
-        <v>0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G85">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
-        <v>0.9238795325112874</v>
+        <v>0.80901699437494579</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.25">
@@ -12708,14 +12707,14 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G86">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H86">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.95105651629515331</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
@@ -12723,14 +12722,14 @@
         <v>85</v>
       </c>
       <c r="E87">
-        <v>0.92388000000000003</v>
+        <v>1</v>
       </c>
       <c r="G87">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H87">
         <f t="shared" si="2"/>
-        <v>0.92387953251128707</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.25">
@@ -12738,14 +12737,14 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <v>0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G88">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H88">
         <f t="shared" si="2"/>
-        <v>0.70710678118654913</v>
+        <v>0.95105651629515386</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
@@ -12753,14 +12752,14 @@
         <v>87</v>
       </c>
       <c r="E89">
-        <v>0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G89">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="H89">
         <f t="shared" si="2"/>
-        <v>0.38268343236509306</v>
+        <v>0.80901699437494912</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
@@ -12768,14 +12767,14 @@
         <v>88</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.587785</v>
       </c>
       <c r="G90">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="H90">
         <f t="shared" si="2"/>
-        <v>4.9003769791999829E-15</v>
+        <v>0.58778525229247403</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
@@ -12783,14 +12782,14 @@
         <v>89</v>
       </c>
       <c r="E91">
-        <v>-0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G91">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="H91">
         <f t="shared" si="2"/>
-        <v>-0.38268343236509056</v>
+        <v>0.30901699437494679</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
@@ -12798,14 +12797,14 @@
         <v>90</v>
       </c>
       <c r="E92">
-        <v>-0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="H92">
         <f t="shared" si="2"/>
-        <v>-0.70710678118654713</v>
+        <v>1.102633609417758E-15</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
@@ -12813,14 +12812,14 @@
         <v>91</v>
       </c>
       <c r="E93">
-        <v>-0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G93">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="H93">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128607</v>
+        <v>-0.30901699437494468</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.25">
@@ -12828,14 +12827,14 @@
         <v>92</v>
       </c>
       <c r="E94">
-        <v>-1</v>
+        <v>-0.587785</v>
       </c>
       <c r="G94">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="H94">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>-0.58778525229247225</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.25">
@@ -12843,14 +12842,14 @@
         <v>93</v>
       </c>
       <c r="E95">
-        <v>-0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G95">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128851</v>
+        <v>-0.80901699437494778</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.25">
@@ -12858,14 +12857,14 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <v>-0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G96">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="H96">
         <f t="shared" si="2"/>
-        <v>-0.70710678118654668</v>
+        <v>-0.9510565162951532</v>
       </c>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.25">
@@ -12873,14 +12872,14 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <v>-0.382683</v>
+        <v>-1</v>
       </c>
       <c r="G97">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="H97">
         <f t="shared" si="2"/>
-        <v>-0.38268343236508989</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
@@ -12888,14 +12887,14 @@
         <v>96</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G98">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="H98">
         <f t="shared" si="2"/>
-        <v>-1.470178145890344E-15</v>
+        <v>-0.95105651629515398</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
@@ -12903,14 +12902,14 @@
         <v>97</v>
       </c>
       <c r="E99">
-        <v>0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G99">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H99">
         <f t="shared" si="2"/>
-        <v>0.38268343236508717</v>
+        <v>-0.80901699437494712</v>
       </c>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.25">
@@ -12918,14 +12917,14 @@
         <v>98</v>
       </c>
       <c r="E100">
-        <v>0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G100">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H100">
         <f t="shared" si="2"/>
-        <v>0.70710678118654458</v>
+        <v>-0.58778525229247414</v>
       </c>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.25">
@@ -12933,14 +12932,14 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <v>0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G101">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H101">
         <f t="shared" si="2"/>
-        <v>0.9238795325112874</v>
+        <v>-0.30901699437495028</v>
       </c>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.25">
@@ -12948,14 +12947,14 @@
         <v>100</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-1.22514845490862E-15</v>
       </c>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.25">
@@ -12963,14 +12962,14 @@
         <v>101</v>
       </c>
       <c r="E103">
-        <v>0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G103">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <f t="shared" si="2"/>
-        <v>0.92387953251128718</v>
+        <v>0.30901699437494795</v>
       </c>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.25">
@@ -12978,14 +12977,14 @@
         <v>102</v>
       </c>
       <c r="E104">
-        <v>0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G104">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="H104">
         <f t="shared" si="2"/>
-        <v>0.70710678118654924</v>
+        <v>0.58778525229246925</v>
       </c>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.25">
@@ -12993,14 +12992,14 @@
         <v>103</v>
       </c>
       <c r="E105">
-        <v>0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G105">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H105">
         <f t="shared" si="2"/>
-        <v>0.38268343236509328</v>
+        <v>0.80901699437494567</v>
       </c>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.25">
@@ -13008,14 +13007,14 @@
         <v>104</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G106">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
-        <v>-1.9600206874192949E-15</v>
+        <v>0.9510565162951532</v>
       </c>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
@@ -13023,14 +13022,14 @@
         <v>105</v>
       </c>
       <c r="E107">
-        <v>-0.382683</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H107">
         <f t="shared" si="2"/>
-        <v>-0.38268343236509034</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
@@ -13038,14 +13037,14 @@
         <v>106</v>
       </c>
       <c r="E108">
-        <v>-0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G108">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="H108">
         <f t="shared" si="2"/>
-        <v>-0.70710678118654702</v>
+        <v>0.95105651629515287</v>
       </c>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.25">
@@ -13053,14 +13052,14 @@
         <v>107</v>
       </c>
       <c r="E109">
-        <v>-0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G109">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="H109">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128596</v>
+        <v>0.80901699437494923</v>
       </c>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.25">
@@ -13068,14 +13067,14 @@
         <v>108</v>
       </c>
       <c r="E110">
-        <v>-1</v>
+        <v>0.587785</v>
       </c>
       <c r="G110">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="H110">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.58778525229247425</v>
       </c>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.25">
@@ -13083,14 +13082,14 @@
         <v>109</v>
       </c>
       <c r="E111">
-        <v>-0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G111">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128863</v>
+        <v>0.30901699437494701</v>
       </c>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.25">
@@ -13098,14 +13097,14 @@
         <v>110</v>
       </c>
       <c r="E112">
-        <v>-0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G112">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="H112">
         <f t="shared" si="2"/>
-        <v>-0.7071067811865468</v>
+        <v>4.9003769791999829E-15</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.25">
@@ -13113,14 +13112,14 @@
         <v>111</v>
       </c>
       <c r="E113">
-        <v>-0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G113">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="H113">
         <f t="shared" si="2"/>
-        <v>-0.38268343236509011</v>
+        <v>-0.30901699437494445</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.25">
@@ -13128,14 +13127,14 @@
         <v>112</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>-0.587785</v>
       </c>
       <c r="G114">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H114">
         <f t="shared" si="2"/>
-        <v>-1.715207836872068E-15</v>
+        <v>-0.58778525229247203</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.25">
@@ -13143,14 +13142,14 @@
         <v>113</v>
       </c>
       <c r="E115">
-        <v>0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G115">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H115">
         <f t="shared" si="2"/>
-        <v>0.38268343236508695</v>
+        <v>-0.80901699437494767</v>
       </c>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.25">
@@ -13158,14 +13157,14 @@
         <v>114</v>
       </c>
       <c r="E116">
-        <v>0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G116">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H116">
         <f t="shared" si="2"/>
-        <v>0.70710678118654435</v>
+        <v>-0.9510565162951542</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.25">
@@ -13173,14 +13172,14 @@
         <v>115</v>
       </c>
       <c r="E117">
-        <v>0.92388000000000003</v>
+        <v>-1</v>
       </c>
       <c r="G117">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H117">
         <f t="shared" si="2"/>
-        <v>0.92387953251128729</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.25">
@@ -13188,14 +13187,14 @@
         <v>116</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G118">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="H118">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>-0.95105651629515398</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.25">
@@ -13203,14 +13202,14 @@
         <v>117</v>
       </c>
       <c r="E119">
-        <v>0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G119">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="H119">
         <f t="shared" si="2"/>
-        <v>0.92387953251128729</v>
+        <v>-0.80901699437494723</v>
       </c>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.25">
@@ -13218,14 +13217,14 @@
         <v>118</v>
       </c>
       <c r="E120">
-        <v>0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G120">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H120">
         <f t="shared" si="2"/>
-        <v>0.70710678118654946</v>
+        <v>-0.58778525229247713</v>
       </c>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.25">
@@ -13233,14 +13232,14 @@
         <v>119</v>
       </c>
       <c r="E121">
-        <v>0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G121">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>0.3826834323650935</v>
+        <v>-0.3090169943749505</v>
       </c>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.25">
@@ -13251,11 +13250,11 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="H122">
         <f t="shared" si="2"/>
-        <v>5.3904363611634309E-15</v>
+        <v>-1.470178145890344E-15</v>
       </c>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.25">
@@ -13263,14 +13262,14 @@
         <v>121</v>
       </c>
       <c r="E123">
-        <v>-0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G123">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <f t="shared" si="2"/>
-        <v>-0.38268343236509011</v>
+        <v>0.30901699437494773</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.25">
@@ -13278,14 +13277,14 @@
         <v>122</v>
       </c>
       <c r="E124">
-        <v>-0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G124">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H124">
         <f t="shared" si="2"/>
-        <v>-0.7071067811865468</v>
+        <v>0.5877852522924748</v>
       </c>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.25">
@@ -13293,14 +13292,14 @@
         <v>123</v>
       </c>
       <c r="E125">
-        <v>-0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G125">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H125">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128585</v>
+        <v>0.80901699437494545</v>
       </c>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.25">
@@ -13308,14 +13307,14 @@
         <v>124</v>
       </c>
       <c r="E126">
-        <v>-1</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G126">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H126">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.95105651629515309</v>
       </c>
     </row>
     <row r="127" spans="4:8" x14ac:dyDescent="0.25">
@@ -13323,14 +13322,14 @@
         <v>125</v>
       </c>
       <c r="E127">
-        <v>-0.92388000000000003</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H127">
         <f t="shared" si="2"/>
-        <v>-0.92387953251128863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.25">
@@ -13338,14 +13337,14 @@
         <v>126</v>
       </c>
       <c r="E128">
-        <v>-0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G128">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H128">
         <f t="shared" si="2"/>
-        <v>-0.70710678118654702</v>
+        <v>0.9510565162951552</v>
       </c>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.25">
@@ -13353,14 +13352,14 @@
         <v>127</v>
       </c>
       <c r="E129">
-        <v>-0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G129">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="H129">
         <f t="shared" si="2"/>
-        <v>-0.38268343236509034</v>
+        <v>0.80901699437494934</v>
       </c>
     </row>
     <row r="130" spans="4:8" x14ac:dyDescent="0.25">
@@ -13368,14 +13367,14 @@
         <v>128</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>0.587785</v>
       </c>
       <c r="G130">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="H130">
         <f t="shared" si="2"/>
-        <v>-1.960237527853792E-15</v>
+        <v>0.58778525229247436</v>
       </c>
     </row>
     <row r="131" spans="4:8" x14ac:dyDescent="0.25">
@@ -13383,14 +13382,14 @@
         <v>129</v>
       </c>
       <c r="E131">
-        <v>0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G131">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" si="3">SIN(2*PI()*$K$2/$K$1*D131)</f>
-        <v>0.38268343236508673</v>
+        <v>0.30901699437494723</v>
       </c>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
@@ -13398,14 +13397,14 @@
         <v>130</v>
       </c>
       <c r="E132">
-        <v>0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G132">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="H132">
         <f t="shared" si="3"/>
-        <v>0.70710678118654424</v>
+        <v>-1.9600206874192949E-15</v>
       </c>
     </row>
     <row r="133" spans="4:8" x14ac:dyDescent="0.25">
@@ -13413,14 +13412,14 @@
         <v>131</v>
       </c>
       <c r="E133">
-        <v>0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G133">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="H133">
         <f t="shared" si="3"/>
-        <v>0.92387953251128718</v>
+        <v>-0.30901699437494423</v>
       </c>
     </row>
     <row r="134" spans="4:8" x14ac:dyDescent="0.25">
@@ -13428,14 +13427,14 @@
         <v>132</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>-0.587785</v>
       </c>
       <c r="G134">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="H134">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-0.5877852522924718</v>
       </c>
     </row>
     <row r="135" spans="4:8" x14ac:dyDescent="0.25">
@@ -13443,14 +13442,14 @@
         <v>133</v>
       </c>
       <c r="E135">
-        <v>0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G135">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H135">
         <f t="shared" si="3"/>
-        <v>0.9238795325112874</v>
+        <v>-0.80901699437494756</v>
       </c>
     </row>
     <row r="136" spans="4:8" x14ac:dyDescent="0.25">
@@ -13458,14 +13457,14 @@
         <v>134</v>
       </c>
       <c r="E136">
-        <v>0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G136">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="H136">
         <f t="shared" si="3"/>
-        <v>0.70710678118654957</v>
+        <v>-0.95105651629515198</v>
       </c>
     </row>
     <row r="137" spans="4:8" x14ac:dyDescent="0.25">
@@ -13473,14 +13472,14 @@
         <v>135</v>
       </c>
       <c r="E137">
-        <v>0.382683</v>
+        <v>-1</v>
       </c>
       <c r="G137">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="H137">
         <f t="shared" si="3"/>
-        <v>0.38268343236509372</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="4:8" x14ac:dyDescent="0.25">
@@ -13488,14 +13487,14 @@
         <v>136</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G138">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="H138">
         <f t="shared" si="3"/>
-        <v>-1.4699613054558469E-15</v>
+        <v>-0.95105651629515409</v>
       </c>
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.25">
@@ -13503,14 +13502,14 @@
         <v>137</v>
       </c>
       <c r="E139">
-        <v>-0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G139">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H139">
         <f t="shared" si="3"/>
-        <v>-0.38268343236508989</v>
+        <v>-0.80901699437494734</v>
       </c>
     </row>
     <row r="140" spans="4:8" x14ac:dyDescent="0.25">
@@ -13518,14 +13517,14 @@
         <v>138</v>
       </c>
       <c r="E140">
-        <v>-0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G140">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H140">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654668</v>
+        <v>-0.58778525229247158</v>
       </c>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
@@ -13533,14 +13532,14 @@
         <v>139</v>
       </c>
       <c r="E141">
-        <v>-0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G141">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H141">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128574</v>
+        <v>-0.30901699437495073</v>
       </c>
     </row>
     <row r="142" spans="4:8" x14ac:dyDescent="0.25">
@@ -13548,14 +13547,14 @@
         <v>140</v>
       </c>
       <c r="E142">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G142">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H142">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-1.715207836872068E-15</v>
       </c>
     </row>
     <row r="143" spans="4:8" x14ac:dyDescent="0.25">
@@ -13563,14 +13562,14 @@
         <v>141</v>
       </c>
       <c r="E143">
-        <v>-0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G143">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128874</v>
+        <v>0.30901699437494745</v>
       </c>
     </row>
     <row r="144" spans="4:8" x14ac:dyDescent="0.25">
@@ -13578,14 +13577,14 @@
         <v>142</v>
       </c>
       <c r="E144">
-        <v>-0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G144">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="H144">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654713</v>
+        <v>0.58778525229246881</v>
       </c>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
@@ -13593,14 +13592,14 @@
         <v>143</v>
       </c>
       <c r="E145">
-        <v>-0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G145">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H145">
         <f t="shared" si="3"/>
-        <v>-0.38268343236509056</v>
+        <v>0.80901699437494534</v>
       </c>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
@@ -13608,14 +13607,14 @@
         <v>144</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G146">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H146">
         <f t="shared" si="3"/>
-        <v>-2.205267218835516E-15</v>
+        <v>0.95105651629515298</v>
       </c>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
@@ -13623,14 +13622,14 @@
         <v>145</v>
       </c>
       <c r="E147">
-        <v>0.382683</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H147">
         <f t="shared" si="3"/>
-        <v>0.38268343236508651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
@@ -13638,14 +13637,14 @@
         <v>146</v>
       </c>
       <c r="E148">
-        <v>0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G148">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="H148">
         <f t="shared" si="3"/>
-        <v>0.70710678118654402</v>
+        <v>0.95105651629515298</v>
       </c>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
@@ -13653,14 +13652,14 @@
         <v>147</v>
       </c>
       <c r="E149">
-        <v>0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G149">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="H149">
         <f t="shared" si="3"/>
-        <v>0.92387953251128707</v>
+        <v>0.80901699437494956</v>
       </c>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
@@ -13668,14 +13667,14 @@
         <v>148</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0.587785</v>
       </c>
       <c r="G150">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="H150">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.58778525229247458</v>
       </c>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
@@ -13683,14 +13682,14 @@
         <v>149</v>
       </c>
       <c r="E151">
-        <v>0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G151">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H151">
         <f t="shared" si="3"/>
-        <v>0.9238795325112874</v>
+        <v>0.30901699437494745</v>
       </c>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
@@ -13698,14 +13697,14 @@
         <v>150</v>
       </c>
       <c r="E152">
-        <v>0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="H152">
         <f t="shared" si="3"/>
-        <v>0.70710678118654979</v>
+        <v>5.3904363611634309E-15</v>
       </c>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
@@ -13713,14 +13712,14 @@
         <v>151</v>
       </c>
       <c r="E153">
-        <v>0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G153">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="H153">
         <f t="shared" si="3"/>
-        <v>0.38268343236509395</v>
+        <v>-0.30901699437494395</v>
       </c>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
@@ -13728,14 +13727,14 @@
         <v>152</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>-0.587785</v>
       </c>
       <c r="G154">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H154">
         <f t="shared" si="3"/>
-        <v>5.8804957431268789E-15</v>
+        <v>-0.58778525229247158</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
@@ -13743,14 +13742,14 @@
         <v>153</v>
       </c>
       <c r="E155">
-        <v>-0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G155">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H155">
         <f t="shared" si="3"/>
-        <v>-0.38268343236508967</v>
+        <v>-0.80901699437494734</v>
       </c>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
@@ -13758,14 +13757,14 @@
         <v>154</v>
       </c>
       <c r="E156">
-        <v>-0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G156">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H156">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654646</v>
+        <v>-0.95105651629515409</v>
       </c>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
@@ -13773,14 +13772,14 @@
         <v>155</v>
       </c>
       <c r="E157">
-        <v>-0.92388000000000003</v>
+        <v>-1</v>
       </c>
       <c r="G157">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H157">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128563</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
@@ -13788,14 +13787,14 @@
         <v>156</v>
       </c>
       <c r="E158">
-        <v>-1</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G158">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="H158">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-0.9510565162951542</v>
       </c>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
@@ -13803,14 +13802,14 @@
         <v>157</v>
       </c>
       <c r="E159">
-        <v>-0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G159">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="H159">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128885</v>
+        <v>-0.80901699437494756</v>
       </c>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
@@ -13818,14 +13817,14 @@
         <v>158</v>
       </c>
       <c r="E160">
-        <v>-0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G160">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H160">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654735</v>
+        <v>-0.58778525229247758</v>
       </c>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
@@ -13833,14 +13832,14 @@
         <v>159</v>
       </c>
       <c r="E161">
-        <v>-0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G161">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="H161">
         <f t="shared" si="3"/>
-        <v>-0.38268343236509078</v>
+        <v>-0.30901699437495095</v>
       </c>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
@@ -13851,11 +13850,11 @@
         <v>0</v>
       </c>
       <c r="G162">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="H162">
         <f t="shared" si="3"/>
-        <v>-2.45029690981724E-15</v>
+        <v>-1.960237527853792E-15</v>
       </c>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
@@ -13863,14 +13862,14 @@
         <v>161</v>
       </c>
       <c r="E163">
-        <v>0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G163">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="H163">
         <f t="shared" si="3"/>
-        <v>0.38268343236508628</v>
+        <v>0.30901699437494723</v>
       </c>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
@@ -13878,14 +13877,14 @@
         <v>162</v>
       </c>
       <c r="E164">
-        <v>0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G164">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="H164">
         <f t="shared" si="3"/>
-        <v>0.70710678118654391</v>
+        <v>0.58778525229247436</v>
       </c>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
@@ -13893,14 +13892,14 @@
         <v>163</v>
       </c>
       <c r="E165">
-        <v>0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G165">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H165">
         <f t="shared" si="3"/>
-        <v>0.9238795325112843</v>
+        <v>0.80901699437494523</v>
       </c>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
@@ -13908,14 +13907,14 @@
         <v>164</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G166">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="H166">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.95105651629515298</v>
       </c>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
@@ -13923,14 +13922,14 @@
         <v>165</v>
       </c>
       <c r="E167">
-        <v>0.92388000000000003</v>
+        <v>1</v>
       </c>
       <c r="G167">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H167">
         <f t="shared" si="3"/>
-        <v>0.92387953251129029</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
@@ -13938,14 +13937,14 @@
         <v>166</v>
       </c>
       <c r="E168">
-        <v>0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G168">
-        <v>168</v>
+        <v>200</v>
       </c>
       <c r="H168">
         <f t="shared" si="3"/>
-        <v>0.70710678118654491</v>
+        <v>0.95105651629515531</v>
       </c>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
@@ -13953,14 +13952,14 @@
         <v>167</v>
       </c>
       <c r="E169">
-        <v>0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G169">
-        <v>165</v>
+        <v>227</v>
       </c>
       <c r="H169">
         <f t="shared" si="3"/>
-        <v>0.38268343236508762</v>
+        <v>0.80901699437494967</v>
       </c>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
@@ -13968,14 +13967,14 @@
         <v>168</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.587785</v>
       </c>
       <c r="G170">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="H170">
         <f t="shared" si="3"/>
-        <v>-9.7990192349239891E-16</v>
+        <v>0.5877852522924748</v>
       </c>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
@@ -13983,14 +13982,14 @@
         <v>169</v>
       </c>
       <c r="E171">
-        <v>-0.382683</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G171">
-        <v>108</v>
+        <v>250</v>
       </c>
       <c r="H171">
         <f t="shared" si="3"/>
-        <v>-0.38268343236508945</v>
+        <v>0.30901699437494773</v>
       </c>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
@@ -13998,14 +13997,14 @@
         <v>170</v>
       </c>
       <c r="E172">
-        <v>-0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="H172">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654635</v>
+        <v>-1.4699613054558469E-15</v>
       </c>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
@@ -14013,14 +14012,14 @@
         <v>171</v>
       </c>
       <c r="E173">
-        <v>-0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G173">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="H173">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128563</v>
+        <v>-0.30901699437494373</v>
       </c>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
@@ -14028,14 +14027,14 @@
         <v>172</v>
       </c>
       <c r="E174">
-        <v>-1</v>
+        <v>-0.587785</v>
       </c>
       <c r="G174">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="H174">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>-0.58778525229247147</v>
       </c>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
@@ -14043,14 +14042,14 @@
         <v>173</v>
       </c>
       <c r="E175">
-        <v>-0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G175">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="H175">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128896</v>
+        <v>-0.80901699437494723</v>
       </c>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
@@ -14058,14 +14057,14 @@
         <v>174</v>
       </c>
       <c r="E176">
-        <v>-0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G176">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="H176">
         <f t="shared" si="3"/>
-        <v>-0.70710678118655257</v>
+        <v>-0.95105651629515187</v>
       </c>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
@@ -14073,14 +14072,14 @@
         <v>175</v>
       </c>
       <c r="E177">
-        <v>-0.382683</v>
+        <v>-1</v>
       </c>
       <c r="G177">
-        <v>165</v>
+        <v>89</v>
       </c>
       <c r="H177">
         <f t="shared" si="3"/>
-        <v>-0.38268343236509761</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
@@ -14088,14 +14087,14 @@
         <v>176</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G178">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="H178">
         <f t="shared" si="3"/>
-        <v>-9.8007539583999659E-15</v>
+        <v>-0.9510565162951542</v>
       </c>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
@@ -14103,14 +14102,14 @@
         <v>177</v>
       </c>
       <c r="E179">
-        <v>0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G179">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="H179">
         <f t="shared" si="3"/>
-        <v>0.38268343236509261</v>
+        <v>-0.80901699437494767</v>
       </c>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
@@ -14118,14 +14117,14 @@
         <v>178</v>
       </c>
       <c r="E180">
-        <v>0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G180">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="H180">
         <f t="shared" si="3"/>
-        <v>0.70710678118654868</v>
+        <v>-0.58778525229247203</v>
       </c>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
@@ -14133,14 +14132,14 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <v>0.92388000000000003</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G181">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="H181">
         <f t="shared" si="3"/>
-        <v>0.92387953251128685</v>
+        <v>-0.30901699437495123</v>
       </c>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
@@ -14148,14 +14147,14 @@
         <v>180</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="H182">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>-2.205267218835516E-15</v>
       </c>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.25">
@@ -14163,14 +14162,14 @@
         <v>181</v>
       </c>
       <c r="E183">
-        <v>0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G183">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H183">
         <f t="shared" si="3"/>
-        <v>0.92387953251128763</v>
+        <v>0.30901699437494701</v>
       </c>
     </row>
     <row r="184" spans="4:8" x14ac:dyDescent="0.25">
@@ -14178,14 +14177,14 @@
         <v>182</v>
       </c>
       <c r="E184">
-        <v>0.70710700000000004</v>
+        <v>0.587785</v>
       </c>
       <c r="G184">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="H184">
         <f t="shared" si="3"/>
-        <v>0.70710678118655013</v>
+        <v>0.58778525229246847</v>
       </c>
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
@@ -14193,14 +14192,14 @@
         <v>183</v>
       </c>
       <c r="E185">
-        <v>0.382683</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G185">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="H185">
         <f t="shared" si="3"/>
-        <v>0.38268343236509439</v>
+        <v>0.80901699437494501</v>
       </c>
     </row>
     <row r="186" spans="4:8" x14ac:dyDescent="0.25">
@@ -14208,14 +14207,14 @@
         <v>184</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G186">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H186">
         <f t="shared" si="3"/>
-        <v>6.370555125090327E-15</v>
+        <v>0.95105651629515287</v>
       </c>
     </row>
     <row r="187" spans="4:8" x14ac:dyDescent="0.25">
@@ -14223,14 +14222,14 @@
         <v>185</v>
       </c>
       <c r="E187">
-        <v>-0.382683</v>
+        <v>1</v>
       </c>
       <c r="G187">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="H187">
         <f t="shared" si="3"/>
-        <v>-0.38268343236508262</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="4:8" x14ac:dyDescent="0.25">
@@ -14238,14 +14237,14 @@
         <v>186</v>
       </c>
       <c r="E188">
-        <v>-0.70710700000000004</v>
+        <v>0.95105700000000004</v>
       </c>
       <c r="G188">
-        <v>87</v>
+        <v>200</v>
       </c>
       <c r="H188">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654113</v>
+        <v>0.9510565162951532</v>
       </c>
     </row>
     <row r="189" spans="4:8" x14ac:dyDescent="0.25">
@@ -14253,14 +14252,14 @@
         <v>187</v>
       </c>
       <c r="E189">
-        <v>-0.92388000000000003</v>
+        <v>0.80901699999999999</v>
       </c>
       <c r="G189">
-        <v>90</v>
+        <v>227</v>
       </c>
       <c r="H189">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128818</v>
+        <v>0.80901699437494978</v>
       </c>
     </row>
     <row r="190" spans="4:8" x14ac:dyDescent="0.25">
@@ -14268,14 +14267,14 @@
         <v>188</v>
       </c>
       <c r="E190">
-        <v>-1</v>
+        <v>0.587785</v>
       </c>
       <c r="G190">
-        <v>115</v>
+        <v>244</v>
       </c>
       <c r="H190">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>0.58778525229247502</v>
       </c>
     </row>
     <row r="191" spans="4:8" x14ac:dyDescent="0.25">
@@ -14283,14 +14282,14 @@
         <v>189</v>
       </c>
       <c r="E191">
-        <v>-0.92388000000000003</v>
+        <v>0.30901699999999999</v>
       </c>
       <c r="G191">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="H191">
         <f t="shared" si="3"/>
-        <v>-0.92387953251128629</v>
+        <v>0.30901699437494795</v>
       </c>
     </row>
     <row r="192" spans="4:8" x14ac:dyDescent="0.25">
@@ -14298,14 +14297,14 @@
         <v>190</v>
       </c>
       <c r="E192">
-        <v>-0.70710700000000004</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>168</v>
+        <v>244</v>
       </c>
       <c r="H192">
         <f t="shared" si="3"/>
-        <v>-0.70710678118654768</v>
+        <v>5.8804957431268789E-15</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.25">
@@ -14313,14 +14312,14 @@
         <v>191</v>
       </c>
       <c r="E193">
-        <v>-0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G193">
-        <v>165</v>
+        <v>226</v>
       </c>
       <c r="H193">
         <f t="shared" si="3"/>
-        <v>-0.38268343236509123</v>
+        <v>-0.30901699437494351</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.25">
@@ -14328,14 +14327,14 @@
         <v>192</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>-0.587785</v>
       </c>
       <c r="G194">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="H194">
         <f t="shared" si="3"/>
-        <v>-2.940356291780688E-15</v>
+        <v>-0.58778525229247125</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.25">
@@ -14343,14 +14342,14 @@
         <v>193</v>
       </c>
       <c r="E195">
-        <v>0.382683</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G195">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="H195">
         <f t="shared" ref="H195:H201" si="4">SIN(2*PI()*$K$2/$K$1*D195)</f>
-        <v>0.38268343236508578</v>
+        <v>-0.80901699437494712</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.25">
@@ -14358,14 +14357,14 @@
         <v>194</v>
       </c>
       <c r="E196">
-        <v>0.70710700000000004</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G196">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="H196">
         <f t="shared" si="4"/>
-        <v>0.70710678118654358</v>
+        <v>-0.95105651629515398</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.25">
@@ -14373,14 +14372,14 @@
         <v>195</v>
       </c>
       <c r="E197">
-        <v>0.92388000000000003</v>
+        <v>-1</v>
       </c>
       <c r="G197">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H197">
         <f t="shared" si="4"/>
-        <v>0.92387953251128407</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="4:8" x14ac:dyDescent="0.25">
@@ -14388,14 +14387,14 @@
         <v>196</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>-0.95105700000000004</v>
       </c>
       <c r="G198">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="H198">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>-0.95105651629515431</v>
       </c>
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.25">
@@ -14403,14 +14402,14 @@
         <v>197</v>
       </c>
       <c r="E199">
-        <v>0.92388000000000003</v>
+        <v>-0.80901699999999999</v>
       </c>
       <c r="G199">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="H199">
         <f t="shared" si="4"/>
-        <v>0.92387953251129051</v>
+        <v>-0.80901699437494778</v>
       </c>
     </row>
     <row r="200" spans="4:8" x14ac:dyDescent="0.25">
@@ -14418,14 +14417,14 @@
         <v>198</v>
       </c>
       <c r="E200">
-        <v>0.70710700000000004</v>
+        <v>-0.587785</v>
       </c>
       <c r="G200">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="H200">
         <f t="shared" si="4"/>
-        <v>0.70710678118654524</v>
+        <v>-0.58778525229247791</v>
       </c>
     </row>
     <row r="201" spans="4:8" x14ac:dyDescent="0.25">
@@ -14433,14 +14432,14 @@
         <v>199</v>
       </c>
       <c r="E201">
-        <v>0.382683</v>
+        <v>-0.30901699999999999</v>
       </c>
       <c r="G201">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="H201">
         <f t="shared" si="4"/>
-        <v>0.38268343236508806</v>
+        <v>-0.30901699437495145</v>
       </c>
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.25">
@@ -14495,7 +14494,7 @@
         <v>-771543.30796359677</v>
       </c>
       <c r="C2">
-        <f>B2/POWER(2,22)</f>
+        <f t="shared" ref="C2:C34" si="0">B2/POWER(2,22)</f>
         <v>-0.18395025919999999</v>
       </c>
       <c r="D2">
@@ -14512,15 +14511,15 @@
         <v>-6.069718E-3</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B34" si="0">A3*POWER(2,30)</f>
+        <f t="shared" ref="B3:B34" si="1">A3*POWER(2,30)</f>
         <v>-6517310.076485632</v>
       </c>
       <c r="C3">
-        <f>B3/POWER(2,22)</f>
+        <f t="shared" si="0"/>
         <v>-1.553847808</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D34" si="1">ROUNDUP(C3,0)</f>
+        <f t="shared" ref="D3:D34" si="2">ROUNDUP(C3,0)</f>
         <v>-2</v>
       </c>
       <c r="F3" t="str">
@@ -14533,15 +14532,15 @@
         <v>0.25058950000000002</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
+        <v>269068426.80524802</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>269068426.80524802</v>
-      </c>
-      <c r="C4">
-        <f>B4/POWER(2,22)</f>
         <v>64.150912000000005</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="F4" t="str">
@@ -14554,15 +14553,15 @@
         <v>-1.474107E-2</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>-15828103.38951168</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>-15828103.38951168</v>
-      </c>
-      <c r="C5">
-        <f>B5/POWER(2,22)</f>
         <v>-3.7737139200000001</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="F5" t="str">
@@ -14575,15 +14574,15 @@
         <v>-1.7451019999999999E-3</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>-1873789.0045460479</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>-1873789.0045460479</v>
-      </c>
-      <c r="C6">
-        <f>B6/POWER(2,22)</f>
         <v>-0.44674611199999997</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F6" t="str">
@@ -14596,15 +14595,15 @@
         <v>1.397583E-17</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>1.500643319611392E-8</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.500643319611392E-8</v>
-      </c>
-      <c r="C7">
-        <f>B7/POWER(2,22)</f>
         <v>3.57781248E-15</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F7" t="str">
@@ -14617,15 +14616,15 @@
         <v>-3.749276E-2</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-40257544.50919424</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>-40257544.50919424</v>
-      </c>
-      <c r="C8">
-        <f>B8/POWER(2,22)</f>
         <v>-9.59814656</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="F8" t="str">
@@ -14638,15 +14637,15 @@
         <v>6.2817969999999999E-18</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>6.7450281687777279E-9</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>6.7450281687777279E-9</v>
-      </c>
-      <c r="C9">
-        <f>B9/POWER(2,22)</f>
         <v>1.608140032E-15</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F9" t="str">
@@ -14659,15 +14658,15 @@
         <v>6.2817969999999999E-18</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>6.7450281687777279E-9</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>6.7450281687777279E-9</v>
-      </c>
-      <c r="C10">
-        <f>B10/POWER(2,22)</f>
         <v>1.608140032E-15</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F10" t="str">
@@ -14680,15 +14679,15 @@
         <v>9.0454179999999995E-2</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>97124436.221624315</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>97124436.221624315</v>
-      </c>
-      <c r="C11">
-        <f>B11/POWER(2,22)</f>
         <v>23.156270079999999</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="F11" t="str">
@@ -14701,15 +14700,15 @@
         <v>-2.686873E-2</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>-28850079.15876352</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>-28850079.15876352</v>
-      </c>
-      <c r="C12">
-        <f>B12/POWER(2,22)</f>
         <v>-6.8783948800000001</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="F12" t="str">
@@ -14722,15 +14721,15 @@
         <v>1.33387E-3</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>1432232.00677888</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
-        <v>1432232.00677888</v>
-      </c>
-      <c r="C13">
-        <f>B13/POWER(2,22)</f>
         <v>0.34147072000000001</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F13" t="str">
@@ -14743,15 +14742,15 @@
         <v>-1.1267350000000001E-2</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>-12098224.940646401</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
-        <v>-12098224.940646401</v>
-      </c>
-      <c r="C14">
-        <f>B14/POWER(2,22)</f>
         <v>-2.8844416000000002</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
       <c r="F14" t="str">
@@ -14764,15 +14763,15 @@
         <v>0.62561020000000001</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>671743837.26100481</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
-        <v>671743837.26100481</v>
-      </c>
-      <c r="C15">
-        <f>B15/POWER(2,22)</f>
         <v>160.1562112</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>161</v>
       </c>
       <c r="F15" t="str">
@@ -14785,15 +14784,15 @@
         <v>-1.594711E-2</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>-17123078.97892864</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
-        <v>-17123078.97892864</v>
-      </c>
-      <c r="C16">
-        <f>B16/POWER(2,22)</f>
         <v>-4.0824601600000001</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5</v>
       </c>
       <c r="F16" t="str">
@@ -14806,15 +14805,15 @@
         <v>1.887878E-3</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2027093.5672094719</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
-        <v>2027093.5672094719</v>
-      </c>
-      <c r="C17">
-        <f>B17/POWER(2,22)</f>
         <v>0.48329676799999999</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F17" t="str">
@@ -14827,15 +14826,15 @@
         <v>2.691298E-2</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>28897592.23447552</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
-        <v>28897592.23447552</v>
-      </c>
-      <c r="C18">
-        <f>B18/POWER(2,22)</f>
         <v>6.8897228799999999</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="F18" t="str">
@@ -14848,15 +14847,15 @@
         <v>-6.9373219999999999E-2</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>-74488927.779553279</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
-        <v>-74488927.779553279</v>
-      </c>
-      <c r="C19">
-        <f>B19/POWER(2,22)</f>
         <v>-17.75954432</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-18</v>
       </c>
       <c r="F19" t="str">
@@ -14869,15 +14868,15 @@
         <v>-5.6731300000000002E-3</v>
       </c>
       <c r="B20">
+        <f t="shared" si="1"/>
+        <v>-6091476.9539891202</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="0"/>
-        <v>-6091476.9539891202</v>
-      </c>
-      <c r="C20">
-        <f>B20/POWER(2,22)</f>
         <v>-1.45232128</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="F20" t="str">
@@ -14890,15 +14889,15 @@
         <v>-5.6731300000000002E-3</v>
       </c>
       <c r="B21">
+        <f t="shared" si="1"/>
+        <v>-6091476.9539891202</v>
+      </c>
+      <c r="C21">
         <f t="shared" si="0"/>
-        <v>-6091476.9539891202</v>
-      </c>
-      <c r="C21">
-        <f>B21/POWER(2,22)</f>
         <v>-1.45232128</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="F21" t="str">
@@ -14911,15 +14910,15 @@
         <v>-0.1273106</v>
       </c>
       <c r="B22">
+        <f t="shared" si="1"/>
+        <v>-136698715.8585344</v>
+      </c>
+      <c r="C22">
         <f t="shared" si="0"/>
-        <v>-136698715.8585344</v>
-      </c>
-      <c r="C22">
-        <f>B22/POWER(2,22)</f>
         <v>-32.591513599999999</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-33</v>
       </c>
       <c r="F22" t="str">
@@ -14932,15 +14931,15 @@
         <v>3.7822090000000003E-2</v>
       </c>
       <c r="B23">
+        <f t="shared" si="1"/>
+        <v>40611159.904092163</v>
+      </c>
+      <c r="C23">
         <f t="shared" si="0"/>
-        <v>40611159.904092163</v>
-      </c>
-      <c r="C23">
-        <f>B23/POWER(2,22)</f>
         <v>9.6824550400000007</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="F23" t="str">
@@ -14953,15 +14952,15 @@
         <v>1.22759E-18</v>
       </c>
       <c r="B24">
+        <f t="shared" si="1"/>
+        <v>1.31811472572416E-9</v>
+      </c>
+      <c r="C24">
         <f t="shared" si="0"/>
-        <v>1.31811472572416E-9</v>
-      </c>
-      <c r="C24">
-        <f>B24/POWER(2,22)</f>
         <v>3.1426304E-16</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F24" t="str">
@@ -14974,15 +14973,15 @@
         <v>-6.2217519999999998E-18</v>
       </c>
       <c r="B25">
+        <f t="shared" si="1"/>
+        <v>-6.6805553409556478E-9</v>
+      </c>
+      <c r="C25">
         <f t="shared" si="0"/>
-        <v>-6.6805553409556478E-9</v>
-      </c>
-      <c r="C25">
-        <f>B25/POWER(2,22)</f>
         <v>-1.592768512E-15</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F25" t="str">
@@ -14995,15 +14994,15 @@
         <v>0.248916</v>
       </c>
       <c r="B26">
+        <f t="shared" si="1"/>
+        <v>267271519.862784</v>
+      </c>
+      <c r="C26">
         <f t="shared" si="0"/>
-        <v>267271519.862784</v>
-      </c>
-      <c r="C26">
-        <f>B26/POWER(2,22)</f>
         <v>63.722496</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="F26" t="str">
@@ -15016,15 +15015,15 @@
         <v>8.5797479999999999E-3</v>
       </c>
       <c r="B27">
+        <f t="shared" si="1"/>
+        <v>9212434.2669803519</v>
+      </c>
+      <c r="C27">
         <f t="shared" si="0"/>
-        <v>9212434.2669803519</v>
-      </c>
-      <c r="C27">
-        <f>B27/POWER(2,22)</f>
         <v>2.196415488</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F27" t="str">
@@ -15037,15 +15036,15 @@
         <v>1.0157020000000001E-3</v>
       </c>
       <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1090601.7181204481</v>
+      </c>
+      <c r="C28">
         <f t="shared" si="0"/>
-        <v>1090601.7181204481</v>
-      </c>
-      <c r="C28">
-        <f>B28/POWER(2,22)</f>
         <v>0.26001971200000001</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F28" t="str">
@@ -15058,15 +15057,15 @@
         <v>-1.9756239999999999E-17</v>
       </c>
       <c r="B29">
+        <f t="shared" si="1"/>
+        <v>-2.1213101172981759E-8</v>
+      </c>
+      <c r="C29">
         <f t="shared" si="0"/>
-        <v>-2.1213101172981759E-8</v>
-      </c>
-      <c r="C29">
-        <f>B29/POWER(2,22)</f>
         <v>-5.0575974399999997E-15</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F29" t="str">
@@ -15079,15 +15078,15 @@
         <v>0.16724549999999999</v>
       </c>
       <c r="B30">
+        <f t="shared" si="1"/>
+        <v>179578488.22579199</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="0"/>
-        <v>179578488.22579199</v>
-      </c>
-      <c r="C30">
-        <f>B30/POWER(2,22)</f>
         <v>42.814847999999998</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="F30" t="str">
@@ -15100,15 +15099,15 @@
         <v>1.1402850000000001E-2</v>
       </c>
       <c r="B31">
+        <f t="shared" si="1"/>
+        <v>12243716.957798401</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="0"/>
-        <v>12243716.957798401</v>
-      </c>
-      <c r="C31">
-        <f>B31/POWER(2,22)</f>
         <v>2.9191296000000002</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F31" t="str">
@@ -15121,15 +15120,15 @@
         <v>1.1402850000000001E-2</v>
       </c>
       <c r="B32">
+        <f t="shared" si="1"/>
+        <v>12243716.957798401</v>
+      </c>
+      <c r="C32">
         <f t="shared" si="0"/>
-        <v>12243716.957798401</v>
-      </c>
-      <c r="C32">
-        <f>B32/POWER(2,22)</f>
         <v>2.9191296000000002</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F32" t="str">
@@ -15142,15 +15141,15 @@
         <v>-0.1672206</v>
       </c>
       <c r="B33">
+        <f t="shared" si="1"/>
+        <v>-179551752.0543744</v>
+      </c>
+      <c r="C33">
         <f t="shared" si="0"/>
-        <v>-179551752.0543744</v>
-      </c>
-      <c r="C33">
-        <f>B33/POWER(2,22)</f>
         <v>-42.808473599999999</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-43</v>
       </c>
       <c r="F33" t="str">
@@ -15163,15 +15162,15 @@
         <v>-6.4634129999999998E-17</v>
       </c>
       <c r="B34">
+        <f t="shared" si="1"/>
+        <v>-6.9400368638853118E-8</v>
+      </c>
+      <c r="C34">
         <f t="shared" si="0"/>
-        <v>-6.9400368638853118E-8</v>
-      </c>
-      <c r="C34">
-        <f>B34/POWER(2,22)</f>
         <v>-1.6546337279999999E-14</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="F34" t="str">

--- a/sim/filter/Simulasi.xlsx
+++ b/sim/filter/Simulasi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2700" windowWidth="20490" windowHeight="7350" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="3150" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="FFT" sheetId="1" r:id="rId1"/>
@@ -240,6 +240,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -302,402 +303,210 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>FFT!$B$4:$B$67</c:f>
+              <c:f>FFT!$B$4:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>15.625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>46.875</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>62.5</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="5">
+                  <c:v>78.125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>93.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>109.375</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="9">
+                  <c:v>140.625</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>156.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>171.875</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>187.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="13">
+                  <c:v>203.125</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>218.75</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>234.375</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>250</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
+                  <c:v>265.625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>281.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>296.875</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>312.5</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="21">
+                  <c:v>328.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>359.375</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>375</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="25">
+                  <c:v>390.625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>406.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>421.875</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>437.5</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>562.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>687.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>750</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>812.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>875</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>937.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1062.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1125</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1187.5</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1312.5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1375</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1437.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1562.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1625</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1687.5</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1750</c:v>
-                </c:pt>
                 <c:pt idx="29">
-                  <c:v>1812.5</c:v>
+                  <c:v>453.125</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1875</c:v>
+                  <c:v>468.75</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1937.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2062.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2125</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2187.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2250</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2312.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2375</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2437.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2562.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2625</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2687.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2750</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2812.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2875</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2937.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3062.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3125</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3187.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3250</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3312.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3375</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3437.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3562.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3625</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3687.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3750</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3812.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3875</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3937.5</c:v>
+                  <c:v>484.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FFT!$C$4:$C$67</c:f>
+              <c:f>FFT!$C$4:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="64"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -926,604 +735,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.587785</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-1</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.587785</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.95105700000000004</c:v>
-                </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="70">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.587785</c:v>
-                </c:pt>
                 <c:pt idx="73">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.587785</c:v>
-                </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
                 <c:pt idx="105">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>-1</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="120">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="130">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.587785</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.95105700000000004</c:v>
-                </c:pt>
                 <c:pt idx="137">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="140">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>1</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="150">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="152">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="151">
-                  <c:v>-0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-0.587785</c:v>
-                </c:pt>
                 <c:pt idx="153">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="160">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="168">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.587785</c:v>
-                </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="170">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="180">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="184">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.30901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.587785</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.80901699999999999</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.95105700000000004</c:v>
-                </c:pt>
                 <c:pt idx="185">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.95105700000000004</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.80901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.587785</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="190">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-0.95105700000000004</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-0.80901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-0.587785</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-0.30901699999999999</c:v>
+                  <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1569,604 +1378,604 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="200"/>
                 <c:pt idx="0">
-                  <c:v>128</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>138</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>132</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>124</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>102</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>82</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>57</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53</c:v>
+                  <c:v>226</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>65</c:v>
+                  <c:v>229</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>113</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>135</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>166</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>193</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>215</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>228</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>237</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>237</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>226</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>199</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>164</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>126</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>89</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>55</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>56</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>91</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>129</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>166</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>200</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="47">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="51">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>226</c:v>
-                </c:pt>
                 <c:pt idx="52">
-                  <c:v>199</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>164</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>126</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>89</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>55</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>28</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>11</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>56</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>91</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>129</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>166</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>200</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>244</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>250</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>244</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>226</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>199</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>164</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>126</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>89</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>55</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>28</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>11</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>11</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>29</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>56</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>91</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>129</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>166</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>200</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="88">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="100">
-                  <c:v>11</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>29</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>56</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>91</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>129</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>166</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>200</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="107">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="115">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="108">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>89</c:v>
-                </c:pt>
                 <c:pt idx="116">
-                  <c:v>55</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>28</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>11</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>11</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>29</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>56</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>91</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>129</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>166</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>200</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="127">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="131">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="128">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>226</c:v>
-                </c:pt>
                 <c:pt idx="132">
-                  <c:v>199</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>164</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>126</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>89</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>55</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>28</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>11</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>11</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>29</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>56</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>91</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>129</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>166</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>200</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="147">
                   <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>244</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>250</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>244</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>226</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>199</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>164</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>126</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>89</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>55</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>28</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>11</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>5</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>11</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>29</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>56</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>91</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>129</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>166</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>200</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="167">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="179">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="168">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="180">
-                  <c:v>11</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>29</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>56</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>91</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>129</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>166</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>200</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="187">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="195">
                   <c:v>227</c:v>
                 </c:pt>
-                <c:pt idx="188">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>89</c:v>
-                </c:pt>
                 <c:pt idx="196">
-                  <c:v>55</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>28</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>11</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>5</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2175,6 +1984,650 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5F8B-4005-88DB-F6F377CF6F45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FILTER!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reference</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>FILTER!$H$2:$H$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.134171618254484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.355339059327378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85.355339059327378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.134171618254499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.865828381745516</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.64466094067263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8060233744356751</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.806023374435668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.644660940672615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.86582838174548</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69.134171618254499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>85.355339059327378</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>96.193976625564318</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>85.35533905932742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69.134171618254527</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30.865828381745509</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.644660940672608</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8060233744356822</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8060233744356609</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.64466094067258</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.865828381745469</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69.134171618254484</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.355339059327392</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.193976625564318</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>85.355339059327434</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>69.134171618254541</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.865828381745601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14.644660940672615</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.8060233744356822</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8060233744356609</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14.644660940672566</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30.865828381745537</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>69.134171618254385</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>85.355339059327378</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>96.193976625564318</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>85.355339059327434</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>69.13417161825447</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>50.000000000000043</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30.865828381745615</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.644660940672622</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.8060233744356822</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.8060233744356537</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14.644660940672559</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.865828381745526</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>49.99999999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>69.134171618254385</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>85.355339059327378</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>96.193976625564318</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>85.355339059327449</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>69.13417161825447</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>50.000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.865828381745626</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14.64466094067263</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.8060233744356893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.8060233744356466</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.644660940672551</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.865828381745516</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>49.999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>69.134171618254371</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>85.355339059327235</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>85.355339059327463</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>69.134171618254655</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>50.000000000000242</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>30.865828381745473</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14.644660940672644</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8060233744356964</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.8060233744355756</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14.644660940672665</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>30.865828381745505</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>49.999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>69.134171618254356</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>85.355339059327235</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96.19397662556436</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>85.355339059327463</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>69.134171618254669</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>49.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>30.865828381745484</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14.644660940672651</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.8060233744357035</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.8060233744355685</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14.644660940672658</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>30.865828381745494</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>49.999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>69.134171618254356</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>85.355339059327221</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>85.355339059327463</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>69.134171618254669</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>50.00000000000027</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>30.865828381745494</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14.644660940672658</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.8060233744357106</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.8060233744355685</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>14.644660940672651</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>30.865828381745484</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>49.999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>69.134171618254328</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>85.355339059327207</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>96.19397662556436</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>85.355339059327477</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>69.134171618254683</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>49.999999999999929</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>30.865828381745505</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>14.644660940672665</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.8060233744357106</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.8060233744355614</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>14.644660940672644</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30.865828381745473</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>49.999999999999886</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>69.134171618254328</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>85.355339059327207</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>85.355339059327491</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>69.134171618254697</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>50.000000000000291</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>30.865828381745516</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>14.644660940672679</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.8060233744357177</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.8060233744355543</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>14.64466094067263</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>30.865828381745462</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>49.999999999999879</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>69.134171618254314</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>85.355339059327193</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>96.193976625564218</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>96.193976625564517</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>85.355339059327235</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>69.134171618254385</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>49.99999999999995</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>30.865828381745526</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>14.644660940672679</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3.8060233744357177</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>3.8060233744355543</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14.644660940672374</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>30.865828381745118</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>49.99999999999951</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>69.134171618254626</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>85.355339059327434</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>96.193976625564346</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>96.193976625564375</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>85.355339059327505</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>69.134171618254726</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>50.00000000000032</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>30.865828381745867</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>14.644660940672942</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>3.8060233744355898</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3.8060233744356822</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>14.644660940672615</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>30.865828381745438</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>49.999999999999851</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>69.134171618254285</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>85.355339059327179</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>96.193976625564204</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>96.193976625564517</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>85.355339059327264</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>69.134171618254399</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5F8B-4005-88DB-F6F377CF6F45}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2189,666 +2642,7 @@
         <c:smooth val="0"/>
         <c:axId val="567502232"/>
         <c:axId val="567502560"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>FILTER!$H$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>reference</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>FILTER!$H$2:$H$201</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="200"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>0.3090169943749474</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>0.58778525229247314</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>0.80901699437494745</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>0.95105651629515353</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>0.95105651629515364</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>0.80901699437494745</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>0.58778525229247325</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>0.30901699437494751</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>1.22514845490862E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>-0.30901699437494728</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>-0.58778525229247303</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>-0.80901699437494734</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>-0.95105651629515353</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>-0.95105651629515364</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>-0.80901699437494756</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>-0.58778525229247336</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>-0.30901699437494762</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>-2.45029690981724E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>0.30901699437494717</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>0.58778525229247292</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>0.80901699437494723</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>0.95105651629515353</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>0.95105651629515364</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>0.80901699437494767</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>0.58778525229247336</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>0.30901699437494778</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>3.67544536472586E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>-0.30901699437494706</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>-0.5877852522924728</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>-0.80901699437494723</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>-0.95105651629515342</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>-0.95105651629515375</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>-0.80901699437494767</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>-0.58778525229247347</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>-0.3090169943749479</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>-4.90059381963448E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>0.30901699437494695</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>0.58778525229247269</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>0.80901699437494712</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>0.95105651629515342</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>0.95105651629515375</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>0.80901699437494778</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>0.58778525229247358</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>0.30901699437494801</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>6.1257422745431001E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>-0.30901699437494512</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>-0.58778525229247258</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>-0.80901699437494812</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>-0.95105651629515342</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>-0.95105651629515375</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>-0.80901699437494679</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>-0.58778525229247369</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>-0.30901699437494978</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>-7.3508907294517201E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>0.30901699437494839</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>0.58778525229247247</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>0.8090169943749459</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>0.95105651629515331</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>0.95105651629515386</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>0.80901699437494901</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>0.5877852522924738</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>0.30901699437494656</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>8.5760391843603401E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>-0.3090169943749449</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>-0.58778525229247247</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>-0.8090169943749479</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>-0.95105651629515331</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>-0.95105651629515386</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>-0.8090169943749469</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>-0.58778525229247391</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>-0.30901699437495006</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>-9.8011876392689601E-16</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>0.30901699437494817</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>0.58778525229247236</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>0.80901699437494579</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>0.95105651629515331</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>0.95105651629515386</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>0.80901699437494912</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>0.58778525229247403</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>0.30901699437494679</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>1.102633609417758E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>-0.30901699437494468</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>-0.58778525229247225</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>-0.80901699437494778</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>-0.9510565162951532</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>-0.95105651629515398</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>-0.80901699437494712</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>-0.58778525229247414</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>-0.30901699437495028</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>-1.22514845490862E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>0.30901699437494795</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>0.58778525229246925</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>0.80901699437494567</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>0.9510565162951532</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>0.95105651629515287</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>0.80901699437494923</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>0.58778525229247425</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>0.30901699437494701</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>4.9003769791999829E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>-0.30901699437494445</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>-0.58778525229247203</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>-0.80901699437494767</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>-0.9510565162951542</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>-0.95105651629515398</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>-0.80901699437494723</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>-0.58778525229247713</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>-0.3090169943749505</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>-1.470178145890344E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>0.30901699437494773</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>0.5877852522924748</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>0.80901699437494545</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>0.95105651629515309</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>0.9510565162951552</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>0.80901699437494934</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>0.58778525229247436</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>0.30901699437494723</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>-1.9600206874192949E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>-0.30901699437494423</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>-0.5877852522924718</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>-0.80901699437494756</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>-0.95105651629515198</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>-0.95105651629515409</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>-0.80901699437494734</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>-0.58778525229247158</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>-0.30901699437495073</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>-1.715207836872068E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>0.30901699437494745</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>0.58778525229246881</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>0.80901699437494534</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>0.95105651629515298</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>0.95105651629515298</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>0.80901699437494956</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>0.58778525229247458</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>0.30901699437494745</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>5.3904363611634309E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>-0.30901699437494395</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>-0.58778525229247158</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>-0.80901699437494734</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>-0.95105651629515409</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>-0.9510565162951542</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>-0.80901699437494756</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>-0.58778525229247758</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>-0.30901699437495095</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>-1.960237527853792E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>0.30901699437494723</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>0.58778525229247436</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>0.80901699437494523</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>0.95105651629515298</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>0.95105651629515531</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>0.80901699437494967</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>0.5877852522924748</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>0.30901699437494773</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>-1.4699613054558469E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>-0.30901699437494373</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>-0.58778525229247147</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>-0.80901699437494723</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>-0.95105651629515187</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>-0.9510565162951542</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>-0.80901699437494767</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>-0.58778525229247203</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>-0.30901699437495123</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>-2.205267218835516E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>0.30901699437494701</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>0.58778525229246847</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>0.80901699437494501</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>0.95105651629515287</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>0.9510565162951532</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>0.80901699437494978</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>0.58778525229247502</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>0.30901699437494795</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>5.8804957431268789E-15</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>-0.30901699437494351</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>-0.58778525229247125</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>-0.80901699437494712</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>-0.95105651629515398</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>-1</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>-0.95105651629515431</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>-0.80901699437494778</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>-0.58778525229247791</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>-0.30901699437495145</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-5F8B-4005-88DB-F6F377CF6F45}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-          </c:ext>
-        </c:extLst>
+        <c:extLst/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="567502232"/>
@@ -3048,7 +2842,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3677,7 +3470,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4318,7 +4110,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4947,7 +4738,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11052,15 +10842,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>38099</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11574,8 +11364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11585,13 +11375,13 @@
         <v>2</v>
       </c>
       <c r="B1">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
       </c>
       <c r="D1">
-        <v>100</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11599,7 +11389,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>128</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -11622,7 +11412,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -11631,10 +11421,10 @@
       </c>
       <c r="B5">
         <f t="shared" ref="B5:B67" si="0">$B$1*A5/$B$2</f>
-        <v>62.5</v>
+        <v>15.625</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -11643,10 +11433,10 @@
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>125</v>
+        <v>31.25</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -11655,10 +11445,10 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>187.5</v>
+        <v>46.875</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11667,10 +11457,10 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>62.5</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -11679,10 +11469,10 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>312.5</v>
+        <v>78.125</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11691,10 +11481,10 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>93.75</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11703,10 +11493,10 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>437.5</v>
+        <v>109.375</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -11715,10 +11505,10 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -11727,10 +11517,10 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>562.5</v>
+        <v>140.625</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -11739,10 +11529,10 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>625</v>
+        <v>156.25</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -11751,10 +11541,10 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>687.5</v>
+        <v>171.875</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -11763,10 +11553,10 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>187.5</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -11775,10 +11565,10 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>812.5</v>
+        <v>203.125</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -11787,7 +11577,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>875</v>
+        <v>218.75</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -11799,10 +11589,10 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>937.5</v>
+        <v>234.375</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -11811,10 +11601,10 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -11823,10 +11613,10 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1062.5</v>
+        <v>265.625</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -11835,10 +11625,10 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>281.25</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -11847,10 +11637,10 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1187.5</v>
+        <v>296.875</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -11859,10 +11649,10 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>312.5</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -11871,10 +11661,10 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1312.5</v>
+        <v>328.125</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -11883,10 +11673,10 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1375</v>
+        <v>343.75</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -11895,10 +11685,10 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1437.5</v>
+        <v>359.375</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -11907,7 +11697,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>375</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -11919,10 +11709,10 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1562.5</v>
+        <v>390.625</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -11931,7 +11721,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1625</v>
+        <v>406.25</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -11943,10 +11733,10 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1687.5</v>
+        <v>421.875</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -11955,10 +11745,10 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>437.5</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -11967,10 +11757,10 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1812.5</v>
+        <v>453.125</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -11979,7 +11769,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1875</v>
+        <v>468.75</v>
       </c>
       <c r="C34">
         <v>2</v>
@@ -11991,7 +11781,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1937.5</v>
+        <v>484.375</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -12003,10 +11793,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -12015,10 +11802,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>2062.5</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
+        <v>515.625</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -12027,10 +11811,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>2125</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+        <v>531.25</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -12039,10 +11820,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>2187.5</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
+        <v>546.875</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -12051,10 +11829,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>2250</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -12063,10 +11838,7 @@
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>2312.5</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
+        <v>578.125</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -12075,10 +11847,7 @@
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>2375</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
+        <v>593.75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -12087,10 +11856,7 @@
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>2437.5</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
+        <v>609.375</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -12099,10 +11865,7 @@
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
+        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -12111,10 +11874,7 @@
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>2562.5</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
+        <v>640.625</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -12123,10 +11883,7 @@
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>2625</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
+        <v>656.25</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -12135,10 +11892,7 @@
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>2687.5</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
+        <v>671.875</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -12147,238 +11901,178 @@
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>2750</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>687.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>45</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>2812.5</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>703.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>46</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>2875</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>718.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>47</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>2937.5</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>734.375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>48</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-      <c r="C52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>49</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>3062.5</v>
-      </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>765.625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>50</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>3125</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>781.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>3187.5</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>796.875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>52</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>3250</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>812.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>53</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>3312.5</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>828.125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>54</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>3375</v>
-      </c>
-      <c r="C58">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>843.75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>3437.5</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>859.375</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>56</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="C60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>57</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>3562.5</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>890.625</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>58</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>3625</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>906.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>59</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>3687.5</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>921.875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>60</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>3750</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>937.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>3812.5</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>953.125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>62</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
-        <v>3875</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>968.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>63</v>
       </c>
       <c r="B67">
         <f t="shared" si="0"/>
-        <v>3937.5</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
+        <v>984.375</v>
       </c>
     </row>
   </sheetData>
@@ -20500,7 +20194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:AG60"/>
     </sheetView>
   </sheetViews>
@@ -28626,10 +28320,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M202"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28661,7 +28355,7 @@
         <v>11</v>
       </c>
       <c r="K1">
-        <v>8000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -28677,17 +28371,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H2">
-        <f>SIN(2*PI()*$K$2/$K$1*D2)</f>
-        <v>0</v>
+        <f>50*SIN(2*PI()*$K$2/$K$1*D2)+50</f>
+        <v>50</v>
       </c>
       <c r="K2">
-        <v>400</v>
+        <v>62.5</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -28709,14 +28403,14 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G3">
         <v>127</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H66" si="1">SIN(2*PI()*$K$2/$K$1*D3)</f>
-        <v>0.3090169943749474</v>
+        <f t="shared" ref="H3:H66" si="1">50*SIN(2*PI()*$K$2/$K$1*D3)+50</f>
+        <v>69.134171618254484</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -28732,14 +28426,14 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G4">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H4">
         <f t="shared" si="1"/>
-        <v>0.58778525229247314</v>
+        <v>85.355339059327378</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -28755,14 +28449,14 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G5">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>0.80901699437494745</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -28778,14 +28472,14 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G6">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>0.95105651629515353</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -28801,14 +28495,14 @@
         <v>5</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G7">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -28824,14 +28518,14 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>0.95105651629515364</v>
+        <v>85.355339059327378</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -28847,14 +28541,14 @@
         <v>7</v>
       </c>
       <c r="E9">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G9">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <f t="shared" si="1"/>
-        <v>0.80901699437494745</v>
+        <v>69.134171618254499</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -28870,14 +28564,14 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>0.58778525229247325</v>
+        <v>50.000000000000007</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -28893,14 +28587,14 @@
         <v>9</v>
       </c>
       <c r="E11">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>0.30901699437494751</v>
+        <v>30.865828381745516</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -28919,11 +28613,11 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>1.22514845490862E-16</v>
+        <v>14.64466094067263</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -28939,14 +28633,14 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13">
         <f t="shared" si="1"/>
-        <v>-0.30901699437494728</v>
+        <v>3.8060233744356751</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -28962,14 +28656,14 @@
         <v>12</v>
       </c>
       <c r="E14">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>-0.58778525229247303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -28985,14 +28679,14 @@
         <v>13</v>
       </c>
       <c r="E15">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>-0.80901699437494734</v>
+        <v>3.806023374435668</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -29008,14 +28702,14 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>-0.95105651629515353</v>
+        <v>14.644660940672615</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -29031,14 +28725,14 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>82</v>
+        <v>190</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>30.86582838174548</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -29054,14 +28748,14 @@
         <v>16</v>
       </c>
       <c r="E18">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G18">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="H18">
         <f t="shared" si="1"/>
-        <v>-0.95105651629515364</v>
+        <v>49.999999999999986</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -29077,14 +28771,14 @@
         <v>17</v>
       </c>
       <c r="E19">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G19">
-        <v>57</v>
+        <v>217</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>-0.80901699437494756</v>
+        <v>69.134171618254499</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -29100,14 +28794,14 @@
         <v>18</v>
       </c>
       <c r="E20">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G20">
-        <v>53</v>
+        <v>226</v>
       </c>
       <c r="H20">
         <f t="shared" si="1"/>
-        <v>-0.58778525229247336</v>
+        <v>85.355339059327378</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -29123,14 +28817,14 @@
         <v>19</v>
       </c>
       <c r="E21">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G21">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="H21">
         <f t="shared" si="1"/>
-        <v>-0.30901699437494762</v>
+        <v>96.193976625564318</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -29146,14 +28840,14 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G22">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="H22">
         <f t="shared" si="1"/>
-        <v>-2.45029690981724E-16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -29169,14 +28863,14 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G23">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="H23">
         <f t="shared" si="1"/>
-        <v>0.30901699437494717</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -29192,14 +28886,14 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G24">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="H24">
         <f t="shared" si="1"/>
-        <v>0.58778525229247292</v>
+        <v>85.35533905932742</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -29215,14 +28909,14 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G25">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="H25">
         <f t="shared" si="1"/>
-        <v>0.80901699437494723</v>
+        <v>69.134171618254527</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -29238,14 +28932,14 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="H26">
         <f t="shared" si="1"/>
-        <v>0.95105651629515353</v>
+        <v>50.000000000000021</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -29261,14 +28955,14 @@
         <v>25</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>30.865828381745509</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -29284,14 +28978,14 @@
         <v>26</v>
       </c>
       <c r="E28">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="H28">
         <f t="shared" si="1"/>
-        <v>0.95105651629515364</v>
+        <v>14.644660940672608</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -29307,14 +29001,14 @@
         <v>27</v>
       </c>
       <c r="E29">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="H29">
         <f t="shared" si="1"/>
-        <v>0.80901699437494767</v>
+        <v>3.8060233744356822</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -29330,14 +29024,14 @@
         <v>28</v>
       </c>
       <c r="E30">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="H30">
         <f t="shared" si="1"/>
-        <v>0.58778525229247336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -29353,14 +29047,14 @@
         <v>29</v>
       </c>
       <c r="E31">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>237</v>
+        <v>161</v>
       </c>
       <c r="H31">
         <f t="shared" si="1"/>
-        <v>0.30901699437494778</v>
+        <v>3.8060233744356609</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -29379,11 +29073,11 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>237</v>
+        <v>171</v>
       </c>
       <c r="H32">
         <f t="shared" si="1"/>
-        <v>3.67544536472586E-16</v>
+        <v>14.64466094067258</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -29399,14 +29093,14 @@
         <v>31</v>
       </c>
       <c r="E33">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="H33">
         <f t="shared" si="1"/>
-        <v>-0.30901699437494706</v>
+        <v>30.865828381745469</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -29422,14 +29116,14 @@
         <v>32</v>
       </c>
       <c r="E34">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G34">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34">
         <f t="shared" si="1"/>
-        <v>-0.5877852522924728</v>
+        <v>49.999999999999979</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -29437,14 +29131,14 @@
         <v>33</v>
       </c>
       <c r="E35">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G35">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H35">
         <f t="shared" si="1"/>
-        <v>-0.80901699437494723</v>
+        <v>69.134171618254484</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -29452,14 +29146,14 @@
         <v>34</v>
       </c>
       <c r="E36">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G36">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="H36">
         <f t="shared" si="1"/>
-        <v>-0.95105651629515342</v>
+        <v>85.355339059327392</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -29467,14 +29161,14 @@
         <v>35</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>256</v>
       </c>
       <c r="G37">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="H37">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>96.193976625564318</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -29482,14 +29176,14 @@
         <v>36</v>
       </c>
       <c r="E38">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G38">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="H38">
         <f t="shared" si="1"/>
-        <v>-0.95105651629515375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -29497,14 +29191,14 @@
         <v>37</v>
       </c>
       <c r="E39">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G39">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="H39">
         <f t="shared" si="1"/>
-        <v>-0.80901699437494767</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -29512,14 +29206,14 @@
         <v>38</v>
       </c>
       <c r="E40">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G40">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H40">
         <f t="shared" si="1"/>
-        <v>-0.58778525229247347</v>
+        <v>85.355339059327434</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -29527,14 +29221,14 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="H41">
         <f t="shared" si="1"/>
-        <v>-0.3090169943749479</v>
+        <v>69.134171618254541</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -29545,11 +29239,11 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="H42">
         <f t="shared" si="1"/>
-        <v>-4.90059381963448E-16</v>
+        <v>50.000000000000028</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -29557,14 +29251,14 @@
         <v>41</v>
       </c>
       <c r="E43">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="H43">
         <f t="shared" si="1"/>
-        <v>0.30901699437494695</v>
+        <v>30.865828381745601</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -29572,14 +29266,14 @@
         <v>42</v>
       </c>
       <c r="E44">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="H44">
         <f t="shared" si="1"/>
-        <v>0.58778525229247269</v>
+        <v>14.644660940672615</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -29587,14 +29281,14 @@
         <v>43</v>
       </c>
       <c r="E45">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="H45">
         <f t="shared" si="1"/>
-        <v>0.80901699437494712</v>
+        <v>3.8060233744356822</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -29602,14 +29296,14 @@
         <v>44</v>
       </c>
       <c r="E46">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="H46">
         <f t="shared" si="1"/>
-        <v>0.95105651629515342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -29617,14 +29311,14 @@
         <v>45</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H47">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3.8060233744356609</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -29632,14 +29326,14 @@
         <v>46</v>
       </c>
       <c r="E48">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="H48">
         <f t="shared" si="1"/>
-        <v>0.95105651629515375</v>
+        <v>14.644660940672566</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.25">
@@ -29647,14 +29341,14 @@
         <v>47</v>
       </c>
       <c r="E49">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="H49">
         <f t="shared" si="1"/>
-        <v>0.80901699437494778</v>
+        <v>30.865828381745537</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.25">
@@ -29662,14 +29356,14 @@
         <v>48</v>
       </c>
       <c r="E50">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G50">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="H50">
         <f t="shared" si="1"/>
-        <v>0.58778525229247358</v>
+        <v>49.999999999999964</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.25">
@@ -29677,14 +29371,14 @@
         <v>49</v>
       </c>
       <c r="E51">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G51">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="H51">
         <f t="shared" si="1"/>
-        <v>0.30901699437494801</v>
+        <v>69.134171618254385</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.25">
@@ -29692,14 +29386,14 @@
         <v>50</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G52">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H52">
         <f t="shared" si="1"/>
-        <v>6.1257422745431001E-16</v>
+        <v>85.355339059327378</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.25">
@@ -29707,14 +29401,14 @@
         <v>51</v>
       </c>
       <c r="E53">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G53">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H53">
         <f t="shared" si="1"/>
-        <v>-0.30901699437494512</v>
+        <v>96.193976625564318</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.25">
@@ -29722,14 +29416,14 @@
         <v>52</v>
       </c>
       <c r="E54">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G54">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H54">
         <f t="shared" si="1"/>
-        <v>-0.58778525229247258</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.25">
@@ -29737,14 +29431,14 @@
         <v>53</v>
       </c>
       <c r="E55">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G55">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="H55">
         <f t="shared" si="1"/>
-        <v>-0.80901699437494812</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.25">
@@ -29752,14 +29446,14 @@
         <v>54</v>
       </c>
       <c r="E56">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G56">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="H56">
         <f t="shared" si="1"/>
-        <v>-0.95105651629515342</v>
+        <v>85.355339059327434</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.25">
@@ -29767,14 +29461,14 @@
         <v>55</v>
       </c>
       <c r="E57">
-        <v>-1</v>
+        <v>256</v>
       </c>
       <c r="G57">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="H57">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>69.13417161825447</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.25">
@@ -29782,14 +29476,14 @@
         <v>56</v>
       </c>
       <c r="E58">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="H58">
         <f t="shared" si="1"/>
-        <v>-0.95105651629515375</v>
+        <v>50.000000000000043</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.25">
@@ -29797,14 +29491,14 @@
         <v>57</v>
       </c>
       <c r="E59">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="H59">
         <f t="shared" si="1"/>
-        <v>-0.80901699437494679</v>
+        <v>30.865828381745615</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.25">
@@ -29812,14 +29506,14 @@
         <v>58</v>
       </c>
       <c r="E60">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H60">
         <f t="shared" si="1"/>
-        <v>-0.58778525229247369</v>
+        <v>14.644660940672622</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.25">
@@ -29827,14 +29521,14 @@
         <v>59</v>
       </c>
       <c r="E61">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="H61">
         <f t="shared" si="1"/>
-        <v>-0.30901699437494978</v>
+        <v>3.8060233744356822</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.25">
@@ -29845,11 +29539,11 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="H62">
         <f t="shared" si="1"/>
-        <v>-7.3508907294517201E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.25">
@@ -29857,14 +29551,14 @@
         <v>61</v>
       </c>
       <c r="E63">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="H63">
         <f t="shared" si="1"/>
-        <v>0.30901699437494839</v>
+        <v>3.8060233744356537</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.25">
@@ -29872,14 +29566,14 @@
         <v>62</v>
       </c>
       <c r="E64">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="H64">
         <f t="shared" si="1"/>
-        <v>0.58778525229247247</v>
+        <v>14.644660940672559</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.25">
@@ -29887,14 +29581,14 @@
         <v>63</v>
       </c>
       <c r="E65">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="H65">
         <f t="shared" si="1"/>
-        <v>0.8090169943749459</v>
+        <v>30.865828381745526</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.25">
@@ -29902,14 +29596,14 @@
         <v>64</v>
       </c>
       <c r="E66">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G66">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="H66">
         <f t="shared" si="1"/>
-        <v>0.95105651629515331</v>
+        <v>49.99999999999995</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.25">
@@ -29917,14 +29611,14 @@
         <v>65</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G67">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H130" si="2">SIN(2*PI()*$K$2/$K$1*D67)</f>
-        <v>1</v>
+        <f t="shared" ref="H67:H130" si="2">50*SIN(2*PI()*$K$2/$K$1*D67)+50</f>
+        <v>69.134171618254385</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.25">
@@ -29932,14 +29626,14 @@
         <v>66</v>
       </c>
       <c r="E68">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G68">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="H68">
         <f t="shared" si="2"/>
-        <v>0.95105651629515386</v>
+        <v>85.355339059327378</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.25">
@@ -29947,14 +29641,14 @@
         <v>67</v>
       </c>
       <c r="E69">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G69">
         <v>227</v>
       </c>
       <c r="H69">
         <f t="shared" si="2"/>
-        <v>0.80901699437494901</v>
+        <v>96.193976625564318</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.25">
@@ -29962,14 +29656,14 @@
         <v>68</v>
       </c>
       <c r="E70">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G70">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H70">
         <f t="shared" si="2"/>
-        <v>0.5877852522924738</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.25">
@@ -29977,14 +29671,14 @@
         <v>69</v>
       </c>
       <c r="E71">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G71">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="H71">
         <f t="shared" si="2"/>
-        <v>0.30901699437494656</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.25">
@@ -29992,14 +29686,14 @@
         <v>70</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G72">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H72">
         <f t="shared" si="2"/>
-        <v>8.5760391843603401E-16</v>
+        <v>85.355339059327449</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.25">
@@ -30007,14 +29701,14 @@
         <v>71</v>
       </c>
       <c r="E73">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G73">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H73">
         <f t="shared" si="2"/>
-        <v>-0.3090169943749449</v>
+        <v>69.13417161825447</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.25">
@@ -30022,14 +29716,14 @@
         <v>72</v>
       </c>
       <c r="E74">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H74">
         <f t="shared" si="2"/>
-        <v>-0.58778525229247247</v>
+        <v>50.000000000000057</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.25">
@@ -30037,14 +29731,14 @@
         <v>73</v>
       </c>
       <c r="E75">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H75">
         <f t="shared" si="2"/>
-        <v>-0.8090169943749479</v>
+        <v>30.865828381745626</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.25">
@@ -30052,14 +29746,14 @@
         <v>74</v>
       </c>
       <c r="E76">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="H76">
         <f t="shared" si="2"/>
-        <v>-0.95105651629515331</v>
+        <v>14.64466094067263</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.25">
@@ -30067,14 +29761,14 @@
         <v>75</v>
       </c>
       <c r="E77">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="H77">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>3.8060233744356893</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.25">
@@ -30082,14 +29776,14 @@
         <v>76</v>
       </c>
       <c r="E78">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H78">
         <f t="shared" si="2"/>
-        <v>-0.95105651629515386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.25">
@@ -30097,14 +29791,14 @@
         <v>77</v>
       </c>
       <c r="E79">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G79">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="H79">
         <f t="shared" si="2"/>
-        <v>-0.8090169943749469</v>
+        <v>3.8060233744356466</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.25">
@@ -30112,14 +29806,14 @@
         <v>78</v>
       </c>
       <c r="E80">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="H80">
         <f t="shared" si="2"/>
-        <v>-0.58778525229247391</v>
+        <v>14.644660940672551</v>
       </c>
     </row>
     <row r="81" spans="4:8" x14ac:dyDescent="0.25">
@@ -30127,14 +29821,14 @@
         <v>79</v>
       </c>
       <c r="E81">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="H81">
         <f t="shared" si="2"/>
-        <v>-0.30901699437495006</v>
+        <v>30.865828381745516</v>
       </c>
     </row>
     <row r="82" spans="4:8" x14ac:dyDescent="0.25">
@@ -30142,14 +29836,14 @@
         <v>80</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G82">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="H82">
         <f t="shared" si="2"/>
-        <v>-9.8011876392689601E-16</v>
+        <v>49.999999999999936</v>
       </c>
     </row>
     <row r="83" spans="4:8" x14ac:dyDescent="0.25">
@@ -30157,14 +29851,14 @@
         <v>81</v>
       </c>
       <c r="E83">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G83">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="H83">
         <f t="shared" si="2"/>
-        <v>0.30901699437494817</v>
+        <v>69.134171618254371</v>
       </c>
     </row>
     <row r="84" spans="4:8" x14ac:dyDescent="0.25">
@@ -30172,14 +29866,14 @@
         <v>82</v>
       </c>
       <c r="E84">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G84">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="H84">
         <f t="shared" si="2"/>
-        <v>0.58778525229247236</v>
+        <v>85.355339059327235</v>
       </c>
     </row>
     <row r="85" spans="4:8" x14ac:dyDescent="0.25">
@@ -30187,14 +29881,14 @@
         <v>83</v>
       </c>
       <c r="E85">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G85">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="H85">
         <f t="shared" si="2"/>
-        <v>0.80901699437494579</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="86" spans="4:8" x14ac:dyDescent="0.25">
@@ -30202,14 +29896,14 @@
         <v>84</v>
       </c>
       <c r="E86">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G86">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="H86">
         <f t="shared" si="2"/>
-        <v>0.95105651629515331</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="4:8" x14ac:dyDescent="0.25">
@@ -30217,14 +29911,14 @@
         <v>85</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G87">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="H87">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="88" spans="4:8" x14ac:dyDescent="0.25">
@@ -30232,14 +29926,14 @@
         <v>86</v>
       </c>
       <c r="E88">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G88">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H88">
         <f t="shared" si="2"/>
-        <v>0.95105651629515386</v>
+        <v>85.355339059327463</v>
       </c>
     </row>
     <row r="89" spans="4:8" x14ac:dyDescent="0.25">
@@ -30247,14 +29941,14 @@
         <v>87</v>
       </c>
       <c r="E89">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G89">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="H89">
         <f t="shared" si="2"/>
-        <v>0.80901699437494912</v>
+        <v>69.134171618254655</v>
       </c>
     </row>
     <row r="90" spans="4:8" x14ac:dyDescent="0.25">
@@ -30262,14 +29956,14 @@
         <v>88</v>
       </c>
       <c r="E90">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G90">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="H90">
         <f t="shared" si="2"/>
-        <v>0.58778525229247403</v>
+        <v>50.000000000000242</v>
       </c>
     </row>
     <row r="91" spans="4:8" x14ac:dyDescent="0.25">
@@ -30277,14 +29971,14 @@
         <v>89</v>
       </c>
       <c r="E91">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G91">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="H91">
         <f t="shared" si="2"/>
-        <v>0.30901699437494679</v>
+        <v>30.865828381745473</v>
       </c>
     </row>
     <row r="92" spans="4:8" x14ac:dyDescent="0.25">
@@ -30295,11 +29989,11 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="H92">
         <f t="shared" si="2"/>
-        <v>1.102633609417758E-15</v>
+        <v>14.644660940672644</v>
       </c>
     </row>
     <row r="93" spans="4:8" x14ac:dyDescent="0.25">
@@ -30307,14 +30001,14 @@
         <v>91</v>
       </c>
       <c r="E93">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="H93">
         <f t="shared" si="2"/>
-        <v>-0.30901699437494468</v>
+        <v>3.8060233744356964</v>
       </c>
     </row>
     <row r="94" spans="4:8" x14ac:dyDescent="0.25">
@@ -30322,14 +30016,14 @@
         <v>92</v>
       </c>
       <c r="E94">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G94">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="H94">
         <f t="shared" si="2"/>
-        <v>-0.58778525229247225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="4:8" x14ac:dyDescent="0.25">
@@ -30337,14 +30031,14 @@
         <v>93</v>
       </c>
       <c r="E95">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H95">
         <f t="shared" si="2"/>
-        <v>-0.80901699437494778</v>
+        <v>3.8060233744355756</v>
       </c>
     </row>
     <row r="96" spans="4:8" x14ac:dyDescent="0.25">
@@ -30352,14 +30046,14 @@
         <v>94</v>
       </c>
       <c r="E96">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G96">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="H96">
         <f t="shared" si="2"/>
-        <v>-0.9510565162951532</v>
+        <v>14.644660940672665</v>
       </c>
     </row>
     <row r="97" spans="4:8" x14ac:dyDescent="0.25">
@@ -30367,14 +30061,14 @@
         <v>95</v>
       </c>
       <c r="E97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="H97">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>30.865828381745505</v>
       </c>
     </row>
     <row r="98" spans="4:8" x14ac:dyDescent="0.25">
@@ -30382,14 +30076,14 @@
         <v>96</v>
       </c>
       <c r="E98">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G98">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="H98">
         <f t="shared" si="2"/>
-        <v>-0.95105651629515398</v>
+        <v>49.999999999999929</v>
       </c>
     </row>
     <row r="99" spans="4:8" x14ac:dyDescent="0.25">
@@ -30397,14 +30091,14 @@
         <v>97</v>
       </c>
       <c r="E99">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G99">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="H99">
         <f t="shared" si="2"/>
-        <v>-0.80901699437494712</v>
+        <v>69.134171618254356</v>
       </c>
     </row>
     <row r="100" spans="4:8" x14ac:dyDescent="0.25">
@@ -30412,14 +30106,14 @@
         <v>98</v>
       </c>
       <c r="E100">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G100">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="H100">
         <f t="shared" si="2"/>
-        <v>-0.58778525229247414</v>
+        <v>85.355339059327235</v>
       </c>
     </row>
     <row r="101" spans="4:8" x14ac:dyDescent="0.25">
@@ -30427,14 +30121,14 @@
         <v>99</v>
       </c>
       <c r="E101">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G101">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H101">
         <f t="shared" si="2"/>
-        <v>-0.30901699437495028</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="102" spans="4:8" x14ac:dyDescent="0.25">
@@ -30442,14 +30136,14 @@
         <v>100</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G102">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="H102">
         <f t="shared" si="2"/>
-        <v>-1.22514845490862E-15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="4:8" x14ac:dyDescent="0.25">
@@ -30457,14 +30151,14 @@
         <v>101</v>
       </c>
       <c r="E103">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G103">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="H103">
         <f t="shared" si="2"/>
-        <v>0.30901699437494795</v>
+        <v>96.19397662556436</v>
       </c>
     </row>
     <row r="104" spans="4:8" x14ac:dyDescent="0.25">
@@ -30472,14 +30166,14 @@
         <v>102</v>
       </c>
       <c r="E104">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G104">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="H104">
         <f t="shared" si="2"/>
-        <v>0.58778525229246925</v>
+        <v>85.355339059327463</v>
       </c>
     </row>
     <row r="105" spans="4:8" x14ac:dyDescent="0.25">
@@ -30487,14 +30181,14 @@
         <v>103</v>
       </c>
       <c r="E105">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G105">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="H105">
         <f t="shared" si="2"/>
-        <v>0.80901699437494567</v>
+        <v>69.134171618254669</v>
       </c>
     </row>
     <row r="106" spans="4:8" x14ac:dyDescent="0.25">
@@ -30502,14 +30196,14 @@
         <v>104</v>
       </c>
       <c r="E106">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G106">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H106">
         <f t="shared" si="2"/>
-        <v>0.9510565162951532</v>
+        <v>49.999999999999901</v>
       </c>
     </row>
     <row r="107" spans="4:8" x14ac:dyDescent="0.25">
@@ -30517,14 +30211,14 @@
         <v>105</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G107">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H107">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>30.865828381745484</v>
       </c>
     </row>
     <row r="108" spans="4:8" x14ac:dyDescent="0.25">
@@ -30532,14 +30226,14 @@
         <v>106</v>
       </c>
       <c r="E108">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G108">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="H108">
         <f t="shared" si="2"/>
-        <v>0.95105651629515287</v>
+        <v>14.644660940672651</v>
       </c>
     </row>
     <row r="109" spans="4:8" x14ac:dyDescent="0.25">
@@ -30547,14 +30241,14 @@
         <v>107</v>
       </c>
       <c r="E109">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="H109">
         <f t="shared" si="2"/>
-        <v>0.80901699437494923</v>
+        <v>3.8060233744357035</v>
       </c>
     </row>
     <row r="110" spans="4:8" x14ac:dyDescent="0.25">
@@ -30562,14 +30256,14 @@
         <v>108</v>
       </c>
       <c r="E110">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="H110">
         <f t="shared" si="2"/>
-        <v>0.58778525229247425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="4:8" x14ac:dyDescent="0.25">
@@ -30577,14 +30271,14 @@
         <v>109</v>
       </c>
       <c r="E111">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G111">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="H111">
         <f t="shared" si="2"/>
-        <v>0.30901699437494701</v>
+        <v>3.8060233744355685</v>
       </c>
     </row>
     <row r="112" spans="4:8" x14ac:dyDescent="0.25">
@@ -30595,11 +30289,11 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="H112">
         <f t="shared" si="2"/>
-        <v>4.9003769791999829E-15</v>
+        <v>14.644660940672658</v>
       </c>
     </row>
     <row r="113" spans="4:8" x14ac:dyDescent="0.25">
@@ -30607,14 +30301,14 @@
         <v>111</v>
       </c>
       <c r="E113">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="H113">
         <f t="shared" si="2"/>
-        <v>-0.30901699437494445</v>
+        <v>30.865828381745494</v>
       </c>
     </row>
     <row r="114" spans="4:8" x14ac:dyDescent="0.25">
@@ -30622,14 +30316,14 @@
         <v>112</v>
       </c>
       <c r="E114">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G114">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H114">
         <f t="shared" si="2"/>
-        <v>-0.58778525229247203</v>
+        <v>49.999999999999915</v>
       </c>
     </row>
     <row r="115" spans="4:8" x14ac:dyDescent="0.25">
@@ -30637,14 +30331,14 @@
         <v>113</v>
       </c>
       <c r="E115">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G115">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H115">
         <f t="shared" si="2"/>
-        <v>-0.80901699437494767</v>
+        <v>69.134171618254356</v>
       </c>
     </row>
     <row r="116" spans="4:8" x14ac:dyDescent="0.25">
@@ -30652,14 +30346,14 @@
         <v>114</v>
       </c>
       <c r="E116">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G116">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="H116">
         <f t="shared" si="2"/>
-        <v>-0.9510565162951542</v>
+        <v>85.355339059327221</v>
       </c>
     </row>
     <row r="117" spans="4:8" x14ac:dyDescent="0.25">
@@ -30667,14 +30361,14 @@
         <v>115</v>
       </c>
       <c r="E117">
-        <v>-1</v>
+        <v>256</v>
       </c>
       <c r="G117">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="H117">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="118" spans="4:8" x14ac:dyDescent="0.25">
@@ -30682,14 +30376,14 @@
         <v>116</v>
       </c>
       <c r="E118">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G118">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="H118">
         <f t="shared" si="2"/>
-        <v>-0.95105651629515398</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="4:8" x14ac:dyDescent="0.25">
@@ -30697,14 +30391,14 @@
         <v>117</v>
       </c>
       <c r="E119">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G119">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="H119">
         <f t="shared" si="2"/>
-        <v>-0.80901699437494723</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="120" spans="4:8" x14ac:dyDescent="0.25">
@@ -30712,14 +30406,14 @@
         <v>118</v>
       </c>
       <c r="E120">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G120">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H120">
         <f t="shared" si="2"/>
-        <v>-0.58778525229247713</v>
+        <v>85.355339059327463</v>
       </c>
     </row>
     <row r="121" spans="4:8" x14ac:dyDescent="0.25">
@@ -30727,14 +30421,14 @@
         <v>119</v>
       </c>
       <c r="E121">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="H121">
         <f t="shared" si="2"/>
-        <v>-0.3090169943749505</v>
+        <v>69.134171618254669</v>
       </c>
     </row>
     <row r="122" spans="4:8" x14ac:dyDescent="0.25">
@@ -30745,11 +30439,11 @@
         <v>0</v>
       </c>
       <c r="G122">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="H122">
         <f t="shared" si="2"/>
-        <v>-1.470178145890344E-15</v>
+        <v>50.00000000000027</v>
       </c>
     </row>
     <row r="123" spans="4:8" x14ac:dyDescent="0.25">
@@ -30757,14 +30451,14 @@
         <v>121</v>
       </c>
       <c r="E123">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G123">
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="H123">
         <f t="shared" si="2"/>
-        <v>0.30901699437494773</v>
+        <v>30.865828381745494</v>
       </c>
     </row>
     <row r="124" spans="4:8" x14ac:dyDescent="0.25">
@@ -30772,14 +30466,14 @@
         <v>122</v>
       </c>
       <c r="E124">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="H124">
         <f t="shared" si="2"/>
-        <v>0.5877852522924748</v>
+        <v>14.644660940672658</v>
       </c>
     </row>
     <row r="125" spans="4:8" x14ac:dyDescent="0.25">
@@ -30787,14 +30481,14 @@
         <v>123</v>
       </c>
       <c r="E125">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G125">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="H125">
         <f t="shared" si="2"/>
-        <v>0.80901699437494545</v>
+        <v>3.8060233744357106</v>
       </c>
     </row>
     <row r="126" spans="4:8" x14ac:dyDescent="0.25">
@@ -30802,14 +30496,14 @@
         <v>124</v>
       </c>
       <c r="E126">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="H126">
         <f t="shared" si="2"/>
-        <v>0.95105651629515309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="4:8" x14ac:dyDescent="0.25">
@@ -30817,14 +30511,14 @@
         <v>125</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H127">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.8060233744355685</v>
       </c>
     </row>
     <row r="128" spans="4:8" x14ac:dyDescent="0.25">
@@ -30832,14 +30526,14 @@
         <v>126</v>
       </c>
       <c r="E128">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G128">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="H128">
         <f t="shared" si="2"/>
-        <v>0.9510565162951552</v>
+        <v>14.644660940672651</v>
       </c>
     </row>
     <row r="129" spans="4:8" x14ac:dyDescent="0.25">
@@ -30847,14 +30541,14 @@
         <v>127</v>
       </c>
       <c r="E129">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G129">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="H129">
         <f t="shared" si="2"/>
-        <v>0.80901699437494934</v>
+        <v>30.865828381745484</v>
       </c>
     </row>
     <row r="130" spans="4:8" x14ac:dyDescent="0.25">
@@ -30862,14 +30556,14 @@
         <v>128</v>
       </c>
       <c r="E130">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G130">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="H130">
         <f t="shared" si="2"/>
-        <v>0.58778525229247436</v>
+        <v>49.999999999999901</v>
       </c>
     </row>
     <row r="131" spans="4:8" x14ac:dyDescent="0.25">
@@ -30877,14 +30571,14 @@
         <v>129</v>
       </c>
       <c r="E131">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G131">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="H131">
-        <f t="shared" ref="H131:H194" si="3">SIN(2*PI()*$K$2/$K$1*D131)</f>
-        <v>0.30901699437494723</v>
+        <f t="shared" ref="H131:H194" si="3">50*SIN(2*PI()*$K$2/$K$1*D131)+50</f>
+        <v>69.134171618254328</v>
       </c>
     </row>
     <row r="132" spans="4:8" x14ac:dyDescent="0.25">
@@ -30892,14 +30586,14 @@
         <v>130</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G132">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="H132">
         <f t="shared" si="3"/>
-        <v>-1.9600206874192949E-15</v>
+        <v>85.355339059327207</v>
       </c>
     </row>
     <row r="133" spans="4:8" x14ac:dyDescent="0.25">
@@ -30907,14 +30601,14 @@
         <v>131</v>
       </c>
       <c r="E133">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G133">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H133">
         <f t="shared" si="3"/>
-        <v>-0.30901699437494423</v>
+        <v>96.19397662556436</v>
       </c>
     </row>
     <row r="134" spans="4:8" x14ac:dyDescent="0.25">
@@ -30922,14 +30616,14 @@
         <v>132</v>
       </c>
       <c r="E134">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G134">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="H134">
         <f t="shared" si="3"/>
-        <v>-0.5877852522924718</v>
+        <v>100</v>
       </c>
     </row>
     <row r="135" spans="4:8" x14ac:dyDescent="0.25">
@@ -30937,14 +30631,14 @@
         <v>133</v>
       </c>
       <c r="E135">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G135">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="H135">
         <f t="shared" si="3"/>
-        <v>-0.80901699437494756</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="136" spans="4:8" x14ac:dyDescent="0.25">
@@ -30952,14 +30646,14 @@
         <v>134</v>
       </c>
       <c r="E136">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G136">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="H136">
         <f t="shared" si="3"/>
-        <v>-0.95105651629515198</v>
+        <v>85.355339059327477</v>
       </c>
     </row>
     <row r="137" spans="4:8" x14ac:dyDescent="0.25">
@@ -30967,14 +30661,14 @@
         <v>135</v>
       </c>
       <c r="E137">
-        <v>-1</v>
+        <v>256</v>
       </c>
       <c r="G137">
-        <v>89</v>
+        <v>198</v>
       </c>
       <c r="H137">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>69.134171618254683</v>
       </c>
     </row>
     <row r="138" spans="4:8" x14ac:dyDescent="0.25">
@@ -30982,14 +30676,14 @@
         <v>136</v>
       </c>
       <c r="E138">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G138">
-        <v>55</v>
+        <v>185</v>
       </c>
       <c r="H138">
         <f t="shared" si="3"/>
-        <v>-0.95105651629515409</v>
+        <v>49.999999999999929</v>
       </c>
     </row>
     <row r="139" spans="4:8" x14ac:dyDescent="0.25">
@@ -30997,14 +30691,14 @@
         <v>137</v>
       </c>
       <c r="E139">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G139">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="H139">
         <f t="shared" si="3"/>
-        <v>-0.80901699437494734</v>
+        <v>30.865828381745505</v>
       </c>
     </row>
     <row r="140" spans="4:8" x14ac:dyDescent="0.25">
@@ -31012,14 +30706,14 @@
         <v>138</v>
       </c>
       <c r="E140">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G140">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="H140">
         <f t="shared" si="3"/>
-        <v>-0.58778525229247158</v>
+        <v>14.644660940672665</v>
       </c>
     </row>
     <row r="141" spans="4:8" x14ac:dyDescent="0.25">
@@ -31027,14 +30721,14 @@
         <v>139</v>
       </c>
       <c r="E141">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G141">
-        <v>5</v>
+        <v>156</v>
       </c>
       <c r="H141">
         <f t="shared" si="3"/>
-        <v>-0.30901699437495073</v>
+        <v>3.8060233744357106</v>
       </c>
     </row>
     <row r="142" spans="4:8" x14ac:dyDescent="0.25">
@@ -31045,11 +30739,11 @@
         <v>0</v>
       </c>
       <c r="G142">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="H142">
         <f t="shared" si="3"/>
-        <v>-1.715207836872068E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="4:8" x14ac:dyDescent="0.25">
@@ -31057,14 +30751,14 @@
         <v>141</v>
       </c>
       <c r="E143">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G143">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="H143">
         <f t="shared" si="3"/>
-        <v>0.30901699437494745</v>
+        <v>3.8060233744355614</v>
       </c>
     </row>
     <row r="144" spans="4:8" x14ac:dyDescent="0.25">
@@ -31072,14 +30766,14 @@
         <v>142</v>
       </c>
       <c r="E144">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G144">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="H144">
         <f t="shared" si="3"/>
-        <v>0.58778525229246881</v>
+        <v>14.644660940672644</v>
       </c>
     </row>
     <row r="145" spans="4:8" x14ac:dyDescent="0.25">
@@ -31087,14 +30781,14 @@
         <v>143</v>
       </c>
       <c r="E145">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G145">
-        <v>91</v>
+        <v>185</v>
       </c>
       <c r="H145">
         <f t="shared" si="3"/>
-        <v>0.80901699437494534</v>
+        <v>30.865828381745473</v>
       </c>
     </row>
     <row r="146" spans="4:8" x14ac:dyDescent="0.25">
@@ -31102,14 +30796,14 @@
         <v>144</v>
       </c>
       <c r="E146">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G146">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="H146">
         <f t="shared" si="3"/>
-        <v>0.95105651629515298</v>
+        <v>49.999999999999886</v>
       </c>
     </row>
     <row r="147" spans="4:8" x14ac:dyDescent="0.25">
@@ -31117,14 +30811,14 @@
         <v>145</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G147">
-        <v>166</v>
+        <v>212</v>
       </c>
       <c r="H147">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>69.134171618254328</v>
       </c>
     </row>
     <row r="148" spans="4:8" x14ac:dyDescent="0.25">
@@ -31132,14 +30826,14 @@
         <v>146</v>
       </c>
       <c r="E148">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G148">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="H148">
         <f t="shared" si="3"/>
-        <v>0.95105651629515298</v>
+        <v>85.355339059327207</v>
       </c>
     </row>
     <row r="149" spans="4:8" x14ac:dyDescent="0.25">
@@ -31147,14 +30841,14 @@
         <v>147</v>
       </c>
       <c r="E149">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G149">
         <v>227</v>
       </c>
       <c r="H149">
         <f t="shared" si="3"/>
-        <v>0.80901699437494956</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="150" spans="4:8" x14ac:dyDescent="0.25">
@@ -31162,14 +30856,14 @@
         <v>148</v>
       </c>
       <c r="E150">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G150">
-        <v>244</v>
+        <v>227</v>
       </c>
       <c r="H150">
         <f t="shared" si="3"/>
-        <v>0.58778525229247458</v>
+        <v>100</v>
       </c>
     </row>
     <row r="151" spans="4:8" x14ac:dyDescent="0.25">
@@ -31177,14 +30871,14 @@
         <v>149</v>
       </c>
       <c r="E151">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G151">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="H151">
         <f t="shared" si="3"/>
-        <v>0.30901699437494745</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="152" spans="4:8" x14ac:dyDescent="0.25">
@@ -31192,14 +30886,14 @@
         <v>150</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G152">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="H152">
         <f t="shared" si="3"/>
-        <v>5.3904363611634309E-15</v>
+        <v>85.355339059327491</v>
       </c>
     </row>
     <row r="153" spans="4:8" x14ac:dyDescent="0.25">
@@ -31207,14 +30901,14 @@
         <v>151</v>
       </c>
       <c r="E153">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G153">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H153">
         <f t="shared" si="3"/>
-        <v>-0.30901699437494395</v>
+        <v>69.134171618254697</v>
       </c>
     </row>
     <row r="154" spans="4:8" x14ac:dyDescent="0.25">
@@ -31222,14 +30916,14 @@
         <v>152</v>
       </c>
       <c r="E154">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="H154">
         <f t="shared" si="3"/>
-        <v>-0.58778525229247158</v>
+        <v>50.000000000000291</v>
       </c>
     </row>
     <row r="155" spans="4:8" x14ac:dyDescent="0.25">
@@ -31237,14 +30931,14 @@
         <v>153</v>
       </c>
       <c r="E155">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H155">
         <f t="shared" si="3"/>
-        <v>-0.80901699437494734</v>
+        <v>30.865828381745516</v>
       </c>
     </row>
     <row r="156" spans="4:8" x14ac:dyDescent="0.25">
@@ -31252,14 +30946,14 @@
         <v>154</v>
       </c>
       <c r="E156">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="H156">
         <f t="shared" si="3"/>
-        <v>-0.95105651629515409</v>
+        <v>14.644660940672679</v>
       </c>
     </row>
     <row r="157" spans="4:8" x14ac:dyDescent="0.25">
@@ -31267,14 +30961,14 @@
         <v>155</v>
       </c>
       <c r="E157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="H157">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>3.8060233744357177</v>
       </c>
     </row>
     <row r="158" spans="4:8" x14ac:dyDescent="0.25">
@@ -31282,14 +30976,14 @@
         <v>156</v>
       </c>
       <c r="E158">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>55</v>
+        <v>156</v>
       </c>
       <c r="H158">
         <f t="shared" si="3"/>
-        <v>-0.9510565162951542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="4:8" x14ac:dyDescent="0.25">
@@ -31297,14 +30991,14 @@
         <v>157</v>
       </c>
       <c r="E159">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="H159">
         <f t="shared" si="3"/>
-        <v>-0.80901699437494756</v>
+        <v>3.8060233744355543</v>
       </c>
     </row>
     <row r="160" spans="4:8" x14ac:dyDescent="0.25">
@@ -31312,14 +31006,14 @@
         <v>158</v>
       </c>
       <c r="E160">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="H160">
         <f t="shared" si="3"/>
-        <v>-0.58778525229247758</v>
+        <v>14.64466094067263</v>
       </c>
     </row>
     <row r="161" spans="4:8" x14ac:dyDescent="0.25">
@@ -31327,14 +31021,14 @@
         <v>159</v>
       </c>
       <c r="E161">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="H161">
         <f t="shared" si="3"/>
-        <v>-0.30901699437495095</v>
+        <v>30.865828381745462</v>
       </c>
     </row>
     <row r="162" spans="4:8" x14ac:dyDescent="0.25">
@@ -31342,14 +31036,14 @@
         <v>160</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G162">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="H162">
         <f t="shared" si="3"/>
-        <v>-1.960237527853792E-15</v>
+        <v>49.999999999999879</v>
       </c>
     </row>
     <row r="163" spans="4:8" x14ac:dyDescent="0.25">
@@ -31357,14 +31051,14 @@
         <v>161</v>
       </c>
       <c r="E163">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G163">
-        <v>29</v>
+        <v>212</v>
       </c>
       <c r="H163">
         <f t="shared" si="3"/>
-        <v>0.30901699437494723</v>
+        <v>69.134171618254314</v>
       </c>
     </row>
     <row r="164" spans="4:8" x14ac:dyDescent="0.25">
@@ -31372,14 +31066,14 @@
         <v>162</v>
       </c>
       <c r="E164">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G164">
-        <v>56</v>
+        <v>222</v>
       </c>
       <c r="H164">
         <f t="shared" si="3"/>
-        <v>0.58778525229247436</v>
+        <v>85.355339059327193</v>
       </c>
     </row>
     <row r="165" spans="4:8" x14ac:dyDescent="0.25">
@@ -31387,14 +31081,14 @@
         <v>163</v>
       </c>
       <c r="E165">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G165">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="H165">
         <f t="shared" si="3"/>
-        <v>0.80901699437494523</v>
+        <v>96.193976625564218</v>
       </c>
     </row>
     <row r="166" spans="4:8" x14ac:dyDescent="0.25">
@@ -31402,14 +31096,14 @@
         <v>164</v>
       </c>
       <c r="E166">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G166">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="H166">
         <f t="shared" si="3"/>
-        <v>0.95105651629515298</v>
+        <v>100</v>
       </c>
     </row>
     <row r="167" spans="4:8" x14ac:dyDescent="0.25">
@@ -31417,14 +31111,14 @@
         <v>165</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>256</v>
       </c>
       <c r="G167">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="H167">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>96.193976625564517</v>
       </c>
     </row>
     <row r="168" spans="4:8" x14ac:dyDescent="0.25">
@@ -31432,14 +31126,14 @@
         <v>166</v>
       </c>
       <c r="E168">
-        <v>0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G168">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H168">
         <f t="shared" si="3"/>
-        <v>0.95105651629515531</v>
+        <v>85.355339059327235</v>
       </c>
     </row>
     <row r="169" spans="4:8" x14ac:dyDescent="0.25">
@@ -31447,14 +31141,14 @@
         <v>167</v>
       </c>
       <c r="E169">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G169">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="H169">
         <f t="shared" si="3"/>
-        <v>0.80901699437494967</v>
+        <v>69.134171618254385</v>
       </c>
     </row>
     <row r="170" spans="4:8" x14ac:dyDescent="0.25">
@@ -31462,14 +31156,14 @@
         <v>168</v>
       </c>
       <c r="E170">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="H170">
         <f t="shared" si="3"/>
-        <v>0.5877852522924748</v>
+        <v>49.99999999999995</v>
       </c>
     </row>
     <row r="171" spans="4:8" x14ac:dyDescent="0.25">
@@ -31477,14 +31171,14 @@
         <v>169</v>
       </c>
       <c r="E171">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>250</v>
+        <v>171</v>
       </c>
       <c r="H171">
         <f t="shared" si="3"/>
-        <v>0.30901699437494773</v>
+        <v>30.865828381745526</v>
       </c>
     </row>
     <row r="172" spans="4:8" x14ac:dyDescent="0.25">
@@ -31495,11 +31189,11 @@
         <v>0</v>
       </c>
       <c r="G172">
-        <v>244</v>
+        <v>161</v>
       </c>
       <c r="H172">
         <f t="shared" si="3"/>
-        <v>-1.4699613054558469E-15</v>
+        <v>14.644660940672679</v>
       </c>
     </row>
     <row r="173" spans="4:8" x14ac:dyDescent="0.25">
@@ -31507,14 +31201,14 @@
         <v>171</v>
       </c>
       <c r="E173">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>226</v>
+        <v>156</v>
       </c>
       <c r="H173">
         <f t="shared" si="3"/>
-        <v>-0.30901699437494373</v>
+        <v>3.8060233744357177</v>
       </c>
     </row>
     <row r="174" spans="4:8" x14ac:dyDescent="0.25">
@@ -31522,14 +31216,14 @@
         <v>172</v>
       </c>
       <c r="E174">
-        <v>-0.587785</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>199</v>
+        <v>156</v>
       </c>
       <c r="H174">
         <f t="shared" si="3"/>
-        <v>-0.58778525229247147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="4:8" x14ac:dyDescent="0.25">
@@ -31537,14 +31231,14 @@
         <v>173</v>
       </c>
       <c r="E175">
-        <v>-0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H175">
         <f t="shared" si="3"/>
-        <v>-0.80901699437494723</v>
+        <v>3.8060233744355543</v>
       </c>
     </row>
     <row r="176" spans="4:8" x14ac:dyDescent="0.25">
@@ -31552,14 +31246,14 @@
         <v>174</v>
       </c>
       <c r="E176">
-        <v>-0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="H176">
         <f t="shared" si="3"/>
-        <v>-0.95105651629515187</v>
+        <v>14.644660940672374</v>
       </c>
     </row>
     <row r="177" spans="4:8" x14ac:dyDescent="0.25">
@@ -31567,14 +31261,14 @@
         <v>175</v>
       </c>
       <c r="E177">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="H177">
         <f t="shared" si="3"/>
-        <v>-1</v>
+        <v>30.865828381745118</v>
       </c>
     </row>
     <row r="178" spans="4:8" x14ac:dyDescent="0.25">
@@ -31582,14 +31276,14 @@
         <v>176</v>
       </c>
       <c r="E178">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G178">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="H178">
         <f t="shared" si="3"/>
-        <v>-0.9510565162951542</v>
+        <v>49.99999999999951</v>
       </c>
     </row>
     <row r="179" spans="4:8" x14ac:dyDescent="0.25">
@@ -31597,14 +31291,14 @@
         <v>177</v>
       </c>
       <c r="E179">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G179">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="H179">
         <f t="shared" si="3"/>
-        <v>-0.80901699437494767</v>
+        <v>69.134171618254626</v>
       </c>
     </row>
     <row r="180" spans="4:8" x14ac:dyDescent="0.25">
@@ -31612,14 +31306,14 @@
         <v>178</v>
       </c>
       <c r="E180">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G180">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="H180">
         <f t="shared" si="3"/>
-        <v>-0.58778525229247203</v>
+        <v>85.355339059327434</v>
       </c>
     </row>
     <row r="181" spans="4:8" x14ac:dyDescent="0.25">
@@ -31627,14 +31321,14 @@
         <v>179</v>
       </c>
       <c r="E181">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G181">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="H181">
         <f t="shared" si="3"/>
-        <v>-0.30901699437495123</v>
+        <v>96.193976625564346</v>
       </c>
     </row>
     <row r="182" spans="4:8" x14ac:dyDescent="0.25">
@@ -31642,14 +31336,14 @@
         <v>180</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="G182">
-        <v>11</v>
+        <v>227</v>
       </c>
       <c r="H182">
         <f t="shared" si="3"/>
-        <v>-2.205267218835516E-15</v>
+        <v>100</v>
       </c>
     </row>
     <row r="183" spans="4:8" x14ac:dyDescent="0.25">
@@ -31657,14 +31351,14 @@
         <v>181</v>
       </c>
       <c r="E183">
-        <v>0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G183">
-        <v>29</v>
+        <v>222</v>
       </c>
       <c r="H183">
         <f t="shared" si="3"/>
-        <v>0.30901699437494701</v>
+        <v>96.193976625564375</v>
       </c>
     </row>
     <row r="184" spans="4:8" x14ac:dyDescent="0.25">
@@ -31672,14 +31366,14 @@
         <v>182</v>
       </c>
       <c r="E184">
-        <v>0.587785</v>
+        <v>256</v>
       </c>
       <c r="G184">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="H184">
         <f t="shared" si="3"/>
-        <v>0.58778525229246847</v>
+        <v>85.355339059327505</v>
       </c>
     </row>
     <row r="185" spans="4:8" x14ac:dyDescent="0.25">
@@ -31687,14 +31381,14 @@
         <v>183</v>
       </c>
       <c r="E185">
-        <v>0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G185">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="H185">
         <f t="shared" si="3"/>
-        <v>0.80901699437494501</v>
+        <v>69.134171618254726</v>
       </c>
     </row>
     <row r="186" spans="4:8" x14ac:dyDescent="0.25">
@@ -31702,14 +31396,14 @@
         <v>184</v>
       </c>
       <c r="E186">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="H186">
         <f t="shared" si="3"/>
-        <v>0.95105651629515287</v>
+        <v>50.00000000000032</v>
       </c>
     </row>
     <row r="187" spans="4:8" x14ac:dyDescent="0.25">
@@ -31717,14 +31411,14 @@
         <v>185</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H187">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>30.865828381745867</v>
       </c>
     </row>
     <row r="188" spans="4:8" x14ac:dyDescent="0.25">
@@ -31732,14 +31426,14 @@
         <v>186</v>
       </c>
       <c r="E188">
-        <v>0.95105700000000004</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="H188">
         <f t="shared" si="3"/>
-        <v>0.9510565162951532</v>
+        <v>14.644660940672942</v>
       </c>
     </row>
     <row r="189" spans="4:8" x14ac:dyDescent="0.25">
@@ -31747,14 +31441,14 @@
         <v>187</v>
       </c>
       <c r="E189">
-        <v>0.80901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="H189">
         <f t="shared" si="3"/>
-        <v>0.80901699437494978</v>
+        <v>3.8060233744355898</v>
       </c>
     </row>
     <row r="190" spans="4:8" x14ac:dyDescent="0.25">
@@ -31762,14 +31456,14 @@
         <v>188</v>
       </c>
       <c r="E190">
-        <v>0.587785</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>244</v>
+        <v>156</v>
       </c>
       <c r="H190">
         <f t="shared" si="3"/>
-        <v>0.58778525229247502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="4:8" x14ac:dyDescent="0.25">
@@ -31777,14 +31471,14 @@
         <v>189</v>
       </c>
       <c r="E191">
-        <v>0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="H191">
         <f t="shared" si="3"/>
-        <v>0.30901699437494795</v>
+        <v>3.8060233744356822</v>
       </c>
     </row>
     <row r="192" spans="4:8" x14ac:dyDescent="0.25">
@@ -31795,11 +31489,11 @@
         <v>0</v>
       </c>
       <c r="G192">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="H192">
         <f t="shared" si="3"/>
-        <v>5.8804957431268789E-15</v>
+        <v>14.644660940672615</v>
       </c>
     </row>
     <row r="193" spans="4:8" x14ac:dyDescent="0.25">
@@ -31807,14 +31501,14 @@
         <v>191</v>
       </c>
       <c r="E193">
-        <v>-0.30901699999999999</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="H193">
         <f t="shared" si="3"/>
-        <v>-0.30901699437494351</v>
+        <v>30.865828381745438</v>
       </c>
     </row>
     <row r="194" spans="4:8" x14ac:dyDescent="0.25">
@@ -31822,14 +31516,14 @@
         <v>192</v>
       </c>
       <c r="E194">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G194">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H194">
         <f t="shared" si="3"/>
-        <v>-0.58778525229247125</v>
+        <v>49.999999999999851</v>
       </c>
     </row>
     <row r="195" spans="4:8" x14ac:dyDescent="0.25">
@@ -31837,14 +31531,14 @@
         <v>193</v>
       </c>
       <c r="E195">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G195">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="H195">
-        <f t="shared" ref="H195:H201" si="4">SIN(2*PI()*$K$2/$K$1*D195)</f>
-        <v>-0.80901699437494712</v>
+        <f t="shared" ref="H195:H209" si="4">50*SIN(2*PI()*$K$2/$K$1*D195)+50</f>
+        <v>69.134171618254285</v>
       </c>
     </row>
     <row r="196" spans="4:8" x14ac:dyDescent="0.25">
@@ -31852,14 +31546,14 @@
         <v>194</v>
       </c>
       <c r="E196">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G196">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="H196">
         <f t="shared" si="4"/>
-        <v>-0.95105651629515398</v>
+        <v>85.355339059327179</v>
       </c>
     </row>
     <row r="197" spans="4:8" x14ac:dyDescent="0.25">
@@ -31867,14 +31561,14 @@
         <v>195</v>
       </c>
       <c r="E197">
-        <v>-1</v>
+        <v>256</v>
       </c>
       <c r="G197">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="H197">
         <f t="shared" si="4"/>
-        <v>-1</v>
+        <v>96.193976625564204</v>
       </c>
     </row>
     <row r="198" spans="4:8" x14ac:dyDescent="0.25">
@@ -31882,14 +31576,14 @@
         <v>196</v>
       </c>
       <c r="E198">
-        <v>-0.95105700000000004</v>
+        <v>256</v>
       </c>
       <c r="G198">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="H198">
         <f t="shared" si="4"/>
-        <v>-0.95105651629515431</v>
+        <v>100</v>
       </c>
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.25">
@@ -31897,14 +31591,14 @@
         <v>197</v>
       </c>
       <c r="E199">
-        <v>-0.80901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G199">
-        <v>28</v>
+        <v>222</v>
       </c>
       <c r="H199">
         <f t="shared" si="4"/>
-        <v>-0.80901699437494778</v>
+        <v>96.193976625564517</v>
       </c>
     </row>
     <row r="200" spans="4:8" x14ac:dyDescent="0.25">
@@ -31912,14 +31606,14 @@
         <v>198</v>
       </c>
       <c r="E200">
-        <v>-0.587785</v>
+        <v>256</v>
       </c>
       <c r="G200">
-        <v>11</v>
+        <v>212</v>
       </c>
       <c r="H200">
         <f t="shared" si="4"/>
-        <v>-0.58778525229247791</v>
+        <v>85.355339059327264</v>
       </c>
     </row>
     <row r="201" spans="4:8" x14ac:dyDescent="0.25">
@@ -31927,19 +31621,89 @@
         <v>199</v>
       </c>
       <c r="E201">
-        <v>-0.30901699999999999</v>
+        <v>256</v>
       </c>
       <c r="G201">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="H201">
         <f t="shared" si="4"/>
-        <v>-0.30901699437495145</v>
+        <v>69.134171618254399</v>
       </c>
     </row>
     <row r="202" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>0</v>
+      </c>
       <c r="G202">
         <v>163</v>
+      </c>
+      <c r="H202">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="203" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="204" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="205" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="206" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="207" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
